--- a/data/taggingData/tagChinData.xlsx
+++ b/data/taggingData/tagChinData.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2047" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2399" uniqueCount="307">
   <si>
     <t>event</t>
   </si>
@@ -544,6 +544,408 @@
   </si>
   <si>
     <t>7696</t>
+  </si>
+  <si>
+    <t>CK10</t>
+  </si>
+  <si>
+    <t>CK11</t>
+  </si>
+  <si>
+    <t>CK12</t>
+  </si>
+  <si>
+    <t>CK13</t>
+  </si>
+  <si>
+    <t>0907</t>
+  </si>
+  <si>
+    <t>019</t>
+  </si>
+  <si>
+    <t>0909</t>
+  </si>
+  <si>
+    <t>27-28</t>
+  </si>
+  <si>
+    <t>20015</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>5.2</t>
+  </si>
+  <si>
+    <t>0921</t>
+  </si>
+  <si>
+    <t>0926</t>
+  </si>
+  <si>
+    <t>CF09</t>
+  </si>
+  <si>
+    <t>29-30</t>
+  </si>
+  <si>
+    <t>20027</t>
+  </si>
+  <si>
+    <t>010</t>
+  </si>
+  <si>
+    <t>9.0</t>
+  </si>
+  <si>
+    <t>020</t>
+  </si>
+  <si>
+    <t>0931</t>
+  </si>
+  <si>
+    <t>0935</t>
+  </si>
+  <si>
+    <t>CF10</t>
+  </si>
+  <si>
+    <t>31-32</t>
+  </si>
+  <si>
+    <t>19980</t>
+  </si>
+  <si>
+    <t>011</t>
+  </si>
+  <si>
+    <t>7697</t>
+  </si>
+  <si>
+    <t>7698</t>
+  </si>
+  <si>
+    <t>0943</t>
+  </si>
+  <si>
+    <t>0946</t>
+  </si>
+  <si>
+    <t>33-34</t>
+  </si>
+  <si>
+    <t>20040</t>
+  </si>
+  <si>
+    <t>4.2</t>
+  </si>
+  <si>
+    <t>021</t>
+  </si>
+  <si>
+    <t>0950</t>
+  </si>
+  <si>
+    <t>0956</t>
+  </si>
+  <si>
+    <t>CF11</t>
+  </si>
+  <si>
+    <t>35-37</t>
+  </si>
+  <si>
+    <t>20042</t>
+  </si>
+  <si>
+    <t>7699</t>
+  </si>
+  <si>
+    <t>4.7</t>
+  </si>
+  <si>
+    <t>1009</t>
+  </si>
+  <si>
+    <t>1014</t>
+  </si>
+  <si>
+    <t>CF12</t>
+  </si>
+  <si>
+    <t>38-39</t>
+  </si>
+  <si>
+    <t>20025</t>
+  </si>
+  <si>
+    <t>7700</t>
+  </si>
+  <si>
+    <t>5.7</t>
+  </si>
+  <si>
+    <t>1016</t>
+  </si>
+  <si>
+    <t>1021</t>
+  </si>
+  <si>
+    <t>CF13</t>
+  </si>
+  <si>
+    <t>40-41</t>
+  </si>
+  <si>
+    <t>20004</t>
+  </si>
+  <si>
+    <t>014</t>
+  </si>
+  <si>
+    <t>7701</t>
+  </si>
+  <si>
+    <t>10.9</t>
+  </si>
+  <si>
+    <t>1028</t>
+  </si>
+  <si>
+    <t>1031</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>19972</t>
+  </si>
+  <si>
+    <t>3.6</t>
+  </si>
+  <si>
+    <t>1036</t>
+  </si>
+  <si>
+    <t>CF14</t>
+  </si>
+  <si>
+    <t>43-44</t>
+  </si>
+  <si>
+    <t>19991</t>
+  </si>
+  <si>
+    <t>7702</t>
+  </si>
+  <si>
+    <t>12.6</t>
+  </si>
+  <si>
+    <t>1038</t>
+  </si>
+  <si>
+    <t>1044</t>
+  </si>
+  <si>
+    <t>45-46</t>
+  </si>
+  <si>
+    <t>20058</t>
+  </si>
+  <si>
+    <t>5.6</t>
+  </si>
+  <si>
+    <t>022</t>
+  </si>
+  <si>
+    <t>1132</t>
+  </si>
+  <si>
+    <t>1135</t>
+  </si>
+  <si>
+    <t>20056</t>
+  </si>
+  <si>
+    <t>1137</t>
+  </si>
+  <si>
+    <t>1141</t>
+  </si>
+  <si>
+    <t>CF15</t>
+  </si>
+  <si>
+    <t>20018</t>
+  </si>
+  <si>
+    <t>7703</t>
+  </si>
+  <si>
+    <t>1.5</t>
+  </si>
+  <si>
+    <t>1146</t>
+  </si>
+  <si>
+    <t>1151</t>
+  </si>
+  <si>
+    <t>CF16</t>
+  </si>
+  <si>
+    <t>6-7</t>
+  </si>
+  <si>
+    <t>20045</t>
+  </si>
+  <si>
+    <t>7704</t>
+  </si>
+  <si>
+    <t>6.4</t>
+  </si>
+  <si>
+    <t>1155</t>
+  </si>
+  <si>
+    <t>1158</t>
+  </si>
+  <si>
+    <t>8-9</t>
+  </si>
+  <si>
+    <t>19964</t>
+  </si>
+  <si>
+    <t>10-11</t>
+  </si>
+  <si>
+    <t>2.1</t>
+  </si>
+  <si>
+    <t>landed dead</t>
+  </si>
+  <si>
+    <t>023</t>
+  </si>
+  <si>
+    <t>12-13</t>
+  </si>
+  <si>
+    <t>1.3</t>
+  </si>
+  <si>
+    <t>CK14</t>
+  </si>
+  <si>
+    <t>CK15</t>
+  </si>
+  <si>
+    <t>CK16</t>
+  </si>
+  <si>
+    <t>CK17</t>
+  </si>
+  <si>
+    <t>CK18</t>
+  </si>
+  <si>
+    <t>CK19</t>
+  </si>
+  <si>
+    <t>CK20</t>
+  </si>
+  <si>
+    <t>CK21</t>
+  </si>
+  <si>
+    <t>CK22</t>
+  </si>
+  <si>
+    <t>CK23</t>
+  </si>
+  <si>
+    <t>CK24</t>
+  </si>
+  <si>
+    <t>CK25</t>
+  </si>
+  <si>
+    <t>CK26</t>
+  </si>
+  <si>
+    <t>CK27</t>
+  </si>
+  <si>
+    <t>CK28</t>
+  </si>
+  <si>
+    <t>CK29</t>
+  </si>
+  <si>
+    <t>CK30</t>
+  </si>
+  <si>
+    <t>1216</t>
+  </si>
+  <si>
+    <t>1221</t>
+  </si>
+  <si>
+    <t>CF17</t>
+  </si>
+  <si>
+    <t>20007</t>
+  </si>
+  <si>
+    <t>018</t>
+  </si>
+  <si>
+    <t>7705</t>
+  </si>
+  <si>
+    <t>6.1</t>
+  </si>
+  <si>
+    <t>1224</t>
+  </si>
+  <si>
+    <t>1230</t>
+  </si>
+  <si>
+    <t>CF18</t>
+  </si>
+  <si>
+    <t>19994</t>
+  </si>
+  <si>
+    <t>7706</t>
+  </si>
+  <si>
+    <t>7.5</t>
+  </si>
+  <si>
+    <t>1229</t>
+  </si>
+  <si>
+    <t>1233</t>
+  </si>
+  <si>
+    <t>19982</t>
+  </si>
+  <si>
+    <t>lots of lice</t>
+  </si>
+  <si>
+    <t>CK31</t>
+  </si>
+  <si>
+    <t>CK32</t>
   </si>
 </sst>
 </file>
@@ -635,13 +1037,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -922,10 +1324,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD14"/>
+  <dimension ref="A1:AD33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="AD14" sqref="AD14"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -936,8 +1338,8 @@
     <col min="15" max="15" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="11.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="12.5546875" style="1" customWidth="1"/>
-    <col min="18" max="22" width="8.88671875" style="1"/>
-    <col min="25" max="29" width="8.88671875" style="11"/>
+    <col min="18" max="23" width="8.88671875" style="1"/>
+    <col min="25" max="29" width="8.88671875" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:30" x14ac:dyDescent="0.3">
@@ -1007,25 +1409,25 @@
       <c r="V1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="W1" t="s">
+      <c r="W1" s="1" t="s">
         <v>21</v>
       </c>
       <c r="X1" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" s="11" t="s">
+      <c r="Y1" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="Z1" s="11" t="s">
+      <c r="Z1" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="AA1" s="11" t="s">
+      <c r="AA1" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="AB1" s="11" t="s">
+      <c r="AB1" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="AC1" s="11" t="s">
+      <c r="AC1" s="9" t="s">
         <v>27</v>
       </c>
       <c r="AD1" t="s">
@@ -1100,25 +1502,25 @@
       <c r="V2" s="1">
         <v>1</v>
       </c>
-      <c r="W2">
+      <c r="W2" s="1">
         <v>10.9</v>
       </c>
       <c r="X2">
         <v>6.3</v>
       </c>
-      <c r="Y2" s="11">
-        <v>0</v>
-      </c>
-      <c r="Z2" s="11">
-        <v>0</v>
-      </c>
-      <c r="AA2" s="11">
-        <v>0</v>
-      </c>
-      <c r="AB2" s="11">
-        <v>0</v>
-      </c>
-      <c r="AC2" s="11">
+      <c r="Y2" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z2" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB2" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC2" s="9">
         <v>0</v>
       </c>
     </row>
@@ -1127,7 +1529,7 @@
         <v>89</v>
       </c>
       <c r="B3" t="str">
-        <f t="shared" ref="B3:B14" si="0">"CT2019"&amp;"_"&amp;C3</f>
+        <f t="shared" ref="B3:B33" si="0">"CT2019"&amp;"_"&amp;C3</f>
         <v>CT2019_002</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -1163,9 +1565,15 @@
       <c r="M3" t="s">
         <v>92</v>
       </c>
+      <c r="N3">
+        <v>11972</v>
+      </c>
       <c r="O3" s="1" t="s">
         <v>93</v>
       </c>
+      <c r="P3" s="1" t="s">
+        <v>84</v>
+      </c>
       <c r="Q3" s="1" t="s">
         <v>94</v>
       </c>
@@ -1184,25 +1592,25 @@
       <c r="V3" s="1">
         <v>1</v>
       </c>
-      <c r="W3" t="s">
+      <c r="W3" s="1" t="s">
         <v>96</v>
       </c>
       <c r="X3" t="s">
         <v>96</v>
       </c>
-      <c r="Y3" s="11">
-        <v>0</v>
-      </c>
-      <c r="Z3" s="11">
-        <v>0</v>
-      </c>
-      <c r="AA3" s="11">
-        <v>0</v>
-      </c>
-      <c r="AB3" s="11">
-        <v>0</v>
-      </c>
-      <c r="AC3" s="11">
+      <c r="Y3" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC3" s="9">
         <v>0</v>
       </c>
       <c r="AD3" t="s">
@@ -1250,9 +1658,15 @@
       <c r="M4" t="s">
         <v>96</v>
       </c>
+      <c r="N4">
+        <v>11972</v>
+      </c>
       <c r="O4" s="1" t="s">
         <v>103</v>
       </c>
+      <c r="P4" s="1" t="s">
+        <v>84</v>
+      </c>
       <c r="Q4" s="1" t="s">
         <v>104</v>
       </c>
@@ -1271,25 +1685,25 @@
       <c r="V4" s="1">
         <v>1</v>
       </c>
-      <c r="W4">
+      <c r="W4" s="1">
         <v>9.8000000000000007</v>
       </c>
       <c r="X4">
         <v>5.9</v>
       </c>
-      <c r="Y4" s="11">
-        <v>0</v>
-      </c>
-      <c r="Z4" s="11">
-        <v>0</v>
-      </c>
-      <c r="AA4" s="11">
-        <v>0</v>
-      </c>
-      <c r="AB4" s="11">
-        <v>0</v>
-      </c>
-      <c r="AC4" s="11">
+      <c r="Y4" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC4" s="9">
         <v>0</v>
       </c>
       <c r="AD4" t="s">
@@ -1337,9 +1751,15 @@
       <c r="M5" t="s">
         <v>109</v>
       </c>
+      <c r="N5">
+        <v>11972</v>
+      </c>
       <c r="O5" s="1" t="s">
         <v>110</v>
       </c>
+      <c r="P5" s="1" t="s">
+        <v>84</v>
+      </c>
       <c r="Q5" s="1" t="s">
         <v>111</v>
       </c>
@@ -1358,25 +1778,25 @@
       <c r="V5" s="1">
         <v>1</v>
       </c>
-      <c r="W5" t="s">
+      <c r="W5" s="1" t="s">
         <v>96</v>
       </c>
       <c r="X5" t="s">
         <v>96</v>
       </c>
-      <c r="Y5" s="11">
-        <v>0</v>
-      </c>
-      <c r="Z5" s="11">
-        <v>0</v>
-      </c>
-      <c r="AA5" s="11">
-        <v>0</v>
-      </c>
-      <c r="AB5" s="11">
-        <v>0</v>
-      </c>
-      <c r="AC5" s="11">
+      <c r="Y5" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="9">
         <v>0</v>
       </c>
       <c r="AD5" t="s">
@@ -1451,25 +1871,25 @@
       <c r="V6" s="1">
         <v>0</v>
       </c>
-      <c r="W6" t="s">
+      <c r="W6" s="1" t="s">
         <v>96</v>
       </c>
       <c r="X6" t="s">
         <v>96</v>
       </c>
-      <c r="Y6" s="11">
-        <v>0</v>
-      </c>
-      <c r="Z6" s="11">
-        <v>0</v>
-      </c>
-      <c r="AA6" s="11">
-        <v>0</v>
-      </c>
-      <c r="AB6" s="11">
-        <v>0</v>
-      </c>
-      <c r="AC6" s="11">
+      <c r="Y6" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="9">
         <v>0</v>
       </c>
       <c r="AD6" t="s">
@@ -1517,9 +1937,15 @@
       <c r="M7" t="s">
         <v>120</v>
       </c>
+      <c r="N7">
+        <v>11972</v>
+      </c>
       <c r="O7" s="1" t="s">
         <v>121</v>
       </c>
+      <c r="P7" s="1" t="s">
+        <v>84</v>
+      </c>
       <c r="Q7" s="1" t="s">
         <v>122</v>
       </c>
@@ -1538,25 +1964,25 @@
       <c r="V7" s="1">
         <v>1</v>
       </c>
-      <c r="W7">
+      <c r="W7" s="1">
         <v>10.6</v>
       </c>
       <c r="X7">
         <v>7.7</v>
       </c>
-      <c r="Y7" s="11">
-        <v>0</v>
-      </c>
-      <c r="Z7" s="11">
-        <v>0</v>
-      </c>
-      <c r="AA7" s="11">
-        <v>0</v>
-      </c>
-      <c r="AB7" s="11">
-        <v>0</v>
-      </c>
-      <c r="AC7" s="11">
+      <c r="Y7" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="9">
         <v>0</v>
       </c>
     </row>
@@ -1607,6 +2033,9 @@
       <c r="O8" s="1" t="s">
         <v>96</v>
       </c>
+      <c r="P8" s="1" t="s">
+        <v>84</v>
+      </c>
       <c r="Q8" s="1" t="s">
         <v>127</v>
       </c>
@@ -1625,25 +2054,25 @@
       <c r="V8" s="1">
         <v>0</v>
       </c>
-      <c r="W8" t="s">
+      <c r="W8" s="1" t="s">
         <v>96</v>
       </c>
       <c r="X8" t="s">
         <v>96</v>
       </c>
-      <c r="Y8" s="11">
-        <v>0</v>
-      </c>
-      <c r="Z8" s="11">
-        <v>0</v>
-      </c>
-      <c r="AA8" s="11">
-        <v>0</v>
-      </c>
-      <c r="AB8" s="11">
-        <v>0</v>
-      </c>
-      <c r="AC8" s="11">
+      <c r="Y8" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="9">
         <v>0</v>
       </c>
     </row>
@@ -1688,9 +2117,15 @@
       <c r="M9" t="s">
         <v>133</v>
       </c>
+      <c r="N9">
+        <v>11972</v>
+      </c>
       <c r="O9" s="1" t="s">
         <v>134</v>
       </c>
+      <c r="P9" s="1" t="s">
+        <v>84</v>
+      </c>
       <c r="Q9" s="1" t="s">
         <v>135</v>
       </c>
@@ -1709,25 +2144,25 @@
       <c r="V9" s="1">
         <v>1</v>
       </c>
-      <c r="W9">
+      <c r="W9" s="1">
         <v>8.1999999999999993</v>
       </c>
       <c r="X9">
         <v>4.4000000000000004</v>
       </c>
-      <c r="Y9" s="11">
-        <v>0</v>
-      </c>
-      <c r="Z9" s="11">
-        <v>0</v>
-      </c>
-      <c r="AA9" s="11">
-        <v>0</v>
-      </c>
-      <c r="AB9" s="11">
-        <v>0</v>
-      </c>
-      <c r="AC9" s="11">
+      <c r="Y9" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="9">
         <v>0</v>
       </c>
     </row>
@@ -1772,9 +2207,15 @@
       <c r="M10" t="s">
         <v>96</v>
       </c>
+      <c r="N10">
+        <v>11972</v>
+      </c>
       <c r="O10" s="1" t="s">
         <v>138</v>
       </c>
+      <c r="P10" s="1" t="s">
+        <v>84</v>
+      </c>
       <c r="Q10" s="1" t="s">
         <v>139</v>
       </c>
@@ -1793,29 +2234,32 @@
       <c r="V10" s="1">
         <v>1</v>
       </c>
-      <c r="W10">
+      <c r="W10" s="1">
         <v>6.5</v>
       </c>
       <c r="X10">
         <v>5.6</v>
       </c>
-      <c r="Y10" s="11">
-        <v>0</v>
-      </c>
-      <c r="Z10" s="11">
-        <v>0</v>
-      </c>
-      <c r="AA10" s="11">
-        <v>0</v>
-      </c>
-      <c r="AB10" s="11">
-        <v>0</v>
-      </c>
-      <c r="AC10" s="11">
+      <c r="Y10" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>173</v>
+      </c>
       <c r="B11" t="str">
         <f t="shared" si="0"/>
         <v>CT2019_016</v>
@@ -1853,9 +2297,15 @@
       <c r="M11" t="s">
         <v>150</v>
       </c>
+      <c r="N11">
+        <v>11972</v>
+      </c>
       <c r="O11" s="1" t="s">
         <v>151</v>
       </c>
+      <c r="P11" s="1" t="s">
+        <v>84</v>
+      </c>
       <c r="Q11" s="1" t="s">
         <v>152</v>
       </c>
@@ -1874,29 +2324,32 @@
       <c r="V11" s="1">
         <v>1</v>
       </c>
-      <c r="W11">
+      <c r="W11" s="1">
         <v>6.2</v>
       </c>
       <c r="X11">
         <v>1.4</v>
       </c>
-      <c r="Y11" s="11">
-        <v>0</v>
-      </c>
-      <c r="Z11" s="11">
-        <v>0</v>
-      </c>
-      <c r="AA11" s="11">
-        <v>0</v>
-      </c>
-      <c r="AB11" s="11">
-        <v>0</v>
-      </c>
-      <c r="AC11" s="11">
+      <c r="Y11" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB11" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC11" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>174</v>
+      </c>
       <c r="B12" t="str">
         <f t="shared" si="0"/>
         <v>CT2019_016</v>
@@ -1934,9 +2387,15 @@
       <c r="M12" t="s">
         <v>155</v>
       </c>
+      <c r="N12">
+        <v>11972</v>
+      </c>
       <c r="O12" s="1" t="s">
         <v>156</v>
       </c>
+      <c r="P12" s="1" t="s">
+        <v>84</v>
+      </c>
       <c r="Q12" s="1" t="s">
         <v>157</v>
       </c>
@@ -1955,25 +2414,25 @@
       <c r="V12" s="1">
         <v>1</v>
       </c>
-      <c r="W12" t="s">
+      <c r="W12" s="1" t="s">
         <v>96</v>
       </c>
       <c r="X12" t="s">
         <v>96</v>
       </c>
-      <c r="Y12" s="11">
-        <v>0</v>
-      </c>
-      <c r="Z12" s="11">
-        <v>0</v>
-      </c>
-      <c r="AA12" s="11">
-        <v>0</v>
-      </c>
-      <c r="AB12" s="11">
-        <v>0</v>
-      </c>
-      <c r="AC12" s="11">
+      <c r="Y12" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC12" s="9">
         <v>0</v>
       </c>
       <c r="AD12" t="s">
@@ -1981,6 +2440,9 @@
       </c>
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>175</v>
+      </c>
       <c r="B13" t="str">
         <f t="shared" si="0"/>
         <v>CT2019_017</v>
@@ -2018,9 +2480,15 @@
       <c r="M13" t="s">
         <v>96</v>
       </c>
+      <c r="N13">
+        <v>11972</v>
+      </c>
       <c r="O13" s="1" t="s">
         <v>161</v>
       </c>
+      <c r="P13" s="1" t="s">
+        <v>84</v>
+      </c>
       <c r="Q13" s="1" t="s">
         <v>162</v>
       </c>
@@ -2045,19 +2513,19 @@
       <c r="X13" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="Y13" s="11">
-        <v>0</v>
-      </c>
-      <c r="Z13" s="11">
-        <v>0</v>
-      </c>
-      <c r="AA13" s="11">
-        <v>0</v>
-      </c>
-      <c r="AB13" s="11">
-        <v>0</v>
-      </c>
-      <c r="AC13" s="11">
+      <c r="Y13" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="9">
         <v>0</v>
       </c>
       <c r="AD13" t="s">
@@ -2065,6 +2533,9 @@
       </c>
     </row>
     <row r="14" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>176</v>
+      </c>
       <c r="B14" t="str">
         <f t="shared" si="0"/>
         <v>CT2019_017</v>
@@ -2102,9 +2573,15 @@
       <c r="M14" t="s">
         <v>167</v>
       </c>
+      <c r="N14">
+        <v>11972</v>
+      </c>
       <c r="O14" s="1" t="s">
         <v>168</v>
       </c>
+      <c r="P14" s="1" t="s">
+        <v>84</v>
+      </c>
       <c r="Q14" s="1" t="s">
         <v>169</v>
       </c>
@@ -2129,23 +2606,1727 @@
       <c r="X14" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="Y14" s="11">
-        <v>0</v>
-      </c>
-      <c r="Z14" s="11">
-        <v>0</v>
-      </c>
-      <c r="AA14" s="11">
-        <v>0</v>
-      </c>
-      <c r="AB14" s="11">
-        <v>0</v>
-      </c>
-      <c r="AC14" s="11">
+      <c r="Y14" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="9">
         <v>0</v>
       </c>
       <c r="AD14" t="s">
         <v>97</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>271</v>
+      </c>
+      <c r="B15" t="str">
+        <f t="shared" si="0"/>
+        <v>CT2019_019</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="F15">
+        <v>24</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H15">
+        <v>61</v>
+      </c>
+      <c r="I15">
+        <v>34</v>
+      </c>
+      <c r="J15" t="s">
+        <v>77</v>
+      </c>
+      <c r="K15" t="s">
+        <v>132</v>
+      </c>
+      <c r="L15">
+        <v>414</v>
+      </c>
+      <c r="M15" t="s">
+        <v>96</v>
+      </c>
+      <c r="N15">
+        <v>11972</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="P15" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q15" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="R15" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="S15" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="T15" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="U15" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="V15" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="W15" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="X15" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="Y15" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB15" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>272</v>
+      </c>
+      <c r="B16" t="str">
+        <f t="shared" si="0"/>
+        <v>CT2019_019</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="F16">
+        <v>22</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H16">
+        <v>67</v>
+      </c>
+      <c r="I16">
+        <v>40</v>
+      </c>
+      <c r="J16" t="s">
+        <v>77</v>
+      </c>
+      <c r="K16" t="s">
+        <v>78</v>
+      </c>
+      <c r="L16">
+        <v>415</v>
+      </c>
+      <c r="M16" t="s">
+        <v>186</v>
+      </c>
+      <c r="N16">
+        <v>11972</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q16" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="R16" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="S16" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="T16" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="U16" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="V16" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="W16" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="X16">
+        <v>3.1</v>
+      </c>
+      <c r="Y16" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA16" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB16" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC16" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>273</v>
+      </c>
+      <c r="B17" t="str">
+        <f t="shared" si="0"/>
+        <v>CT2019_020</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="F17">
+        <v>26</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H17">
+        <v>80</v>
+      </c>
+      <c r="I17">
+        <v>49</v>
+      </c>
+      <c r="J17" t="s">
+        <v>77</v>
+      </c>
+      <c r="K17" t="s">
+        <v>78</v>
+      </c>
+      <c r="L17">
+        <v>416</v>
+      </c>
+      <c r="M17" t="s">
+        <v>194</v>
+      </c>
+      <c r="N17">
+        <v>11972</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="P17" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q17" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="R17" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="S17" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="T17" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="U17" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="V17" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="W17" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="X17">
+        <v>5.8</v>
+      </c>
+      <c r="Y17" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA17" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB17" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC17" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>274</v>
+      </c>
+      <c r="B18" t="str">
+        <f t="shared" si="0"/>
+        <v>CT2019_020</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="F18">
+        <v>28</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H18">
+        <v>56</v>
+      </c>
+      <c r="I18">
+        <v>36</v>
+      </c>
+      <c r="J18" t="s">
+        <v>77</v>
+      </c>
+      <c r="K18" t="s">
+        <v>78</v>
+      </c>
+      <c r="L18">
+        <v>417</v>
+      </c>
+      <c r="M18" t="s">
+        <v>96</v>
+      </c>
+      <c r="N18">
+        <v>11972</v>
+      </c>
+      <c r="O18" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="P18" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q18" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="R18" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="S18" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="T18" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="U18" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="V18" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="W18" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="X18">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="Y18" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA18" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB18" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC18" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>275</v>
+      </c>
+      <c r="B19" t="str">
+        <f t="shared" si="0"/>
+        <v>CT2019_021</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="F19">
+        <v>26</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H19">
+        <v>59</v>
+      </c>
+      <c r="I19">
+        <v>38</v>
+      </c>
+      <c r="J19" t="s">
+        <v>77</v>
+      </c>
+      <c r="K19" t="s">
+        <v>78</v>
+      </c>
+      <c r="L19">
+        <v>418</v>
+      </c>
+      <c r="M19" t="s">
+        <v>208</v>
+      </c>
+      <c r="N19">
+        <v>11972</v>
+      </c>
+      <c r="O19" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="P19" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q19" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="R19" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="S19" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="T19" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="U19" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="V19" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="W19" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="X19">
+        <v>1.8</v>
+      </c>
+      <c r="Y19" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z19" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA19" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB19" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC19" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>276</v>
+      </c>
+      <c r="B20" t="str">
+        <f t="shared" si="0"/>
+        <v>CT2019_021</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="F20">
+        <v>26</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H20">
+        <v>73</v>
+      </c>
+      <c r="I20">
+        <v>47</v>
+      </c>
+      <c r="J20" t="s">
+        <v>77</v>
+      </c>
+      <c r="K20" t="s">
+        <v>132</v>
+      </c>
+      <c r="L20">
+        <v>419</v>
+      </c>
+      <c r="M20" t="s">
+        <v>215</v>
+      </c>
+      <c r="N20">
+        <v>11972</v>
+      </c>
+      <c r="O20" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="P20" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q20" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="R20" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="S20" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="T20" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="U20" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="V20" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="W20" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="X20">
+        <v>2.4</v>
+      </c>
+      <c r="Y20" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB20" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC20" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>277</v>
+      </c>
+      <c r="B21" t="str">
+        <f t="shared" si="0"/>
+        <v>CT2019_021</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F21">
+        <v>30</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H21">
+        <v>78</v>
+      </c>
+      <c r="I21">
+        <v>45</v>
+      </c>
+      <c r="J21" t="s">
+        <v>77</v>
+      </c>
+      <c r="K21" t="s">
+        <v>78</v>
+      </c>
+      <c r="L21">
+        <v>420</v>
+      </c>
+      <c r="M21" t="s">
+        <v>222</v>
+      </c>
+      <c r="N21">
+        <v>11972</v>
+      </c>
+      <c r="O21" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="P21" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q21" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="R21" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="S21" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="T21" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="U21" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="V21" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="W21" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="X21">
+        <v>7.6</v>
+      </c>
+      <c r="Y21" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z21" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA21" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB21" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC21" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>278</v>
+      </c>
+      <c r="B22" t="str">
+        <f t="shared" si="0"/>
+        <v>CT2019_021</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="F22">
+        <v>16</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H22">
+        <v>65</v>
+      </c>
+      <c r="I22">
+        <v>37</v>
+      </c>
+      <c r="J22" t="s">
+        <v>77</v>
+      </c>
+      <c r="K22" t="s">
+        <v>78</v>
+      </c>
+      <c r="L22">
+        <v>421</v>
+      </c>
+      <c r="M22" t="s">
+        <v>96</v>
+      </c>
+      <c r="N22">
+        <v>11972</v>
+      </c>
+      <c r="O22" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="P22" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q22" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="R22" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="S22" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="T22" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="U22" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="V22" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="W22" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="X22">
+        <v>1.5</v>
+      </c>
+      <c r="Y22" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB22" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC22" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>279</v>
+      </c>
+      <c r="B23" t="str">
+        <f t="shared" si="0"/>
+        <v>CT2019_021</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="F23">
+        <v>22</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H23">
+        <v>77</v>
+      </c>
+      <c r="I23">
+        <v>46</v>
+      </c>
+      <c r="J23" t="s">
+        <v>77</v>
+      </c>
+      <c r="K23" t="s">
+        <v>78</v>
+      </c>
+      <c r="L23">
+        <v>422</v>
+      </c>
+      <c r="M23" t="s">
+        <v>234</v>
+      </c>
+      <c r="N23">
+        <v>11972</v>
+      </c>
+      <c r="O23" t="s">
+        <v>235</v>
+      </c>
+      <c r="P23" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q23" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="R23" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="S23" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="T23" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="U23" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="V23" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="W23" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="X23">
+        <v>7.2</v>
+      </c>
+      <c r="Y23" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z23" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA23" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB23" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC23" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>280</v>
+      </c>
+      <c r="B24" t="str">
+        <f t="shared" si="0"/>
+        <v>CT2019_021</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="F24">
+        <v>22</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H24">
+        <v>70</v>
+      </c>
+      <c r="I24">
+        <v>43</v>
+      </c>
+      <c r="J24" t="s">
+        <v>77</v>
+      </c>
+      <c r="K24" t="s">
+        <v>78</v>
+      </c>
+      <c r="L24">
+        <v>423</v>
+      </c>
+      <c r="M24" t="s">
+        <v>96</v>
+      </c>
+      <c r="N24">
+        <v>11972</v>
+      </c>
+      <c r="O24" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="P24" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q24" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="R24" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="S24" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="T24" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="U24" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="V24" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="W24" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="X24">
+        <v>3.2</v>
+      </c>
+      <c r="Y24" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB24" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC24" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>281</v>
+      </c>
+      <c r="B25" t="str">
+        <f t="shared" si="0"/>
+        <v>CT2019_022</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="F25">
+        <v>26</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H25">
+        <v>54</v>
+      </c>
+      <c r="I25">
+        <v>33</v>
+      </c>
+      <c r="J25" t="s">
+        <v>77</v>
+      </c>
+      <c r="K25" t="s">
+        <v>78</v>
+      </c>
+      <c r="L25">
+        <v>424</v>
+      </c>
+      <c r="M25" t="s">
+        <v>96</v>
+      </c>
+      <c r="N25">
+        <v>15631</v>
+      </c>
+      <c r="O25" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="P25" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q25" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="R25" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="S25" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="T25" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="U25" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="V25" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="W25" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="X25">
+        <v>1.5</v>
+      </c>
+      <c r="Y25" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB25" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC25" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>282</v>
+      </c>
+      <c r="B26" t="str">
+        <f t="shared" si="0"/>
+        <v>CT2019_022</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="F26">
+        <v>24</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H26">
+        <v>64</v>
+      </c>
+      <c r="I26">
+        <v>39</v>
+      </c>
+      <c r="J26" t="s">
+        <v>77</v>
+      </c>
+      <c r="K26" t="s">
+        <v>78</v>
+      </c>
+      <c r="L26">
+        <v>425</v>
+      </c>
+      <c r="M26" t="s">
+        <v>250</v>
+      </c>
+      <c r="N26">
+        <v>15631</v>
+      </c>
+      <c r="O26" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="P26" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q26" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="R26" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="S26" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="T26" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="U26" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="V26" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="W26" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="X26">
+        <v>1.4</v>
+      </c>
+      <c r="Y26" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z26" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA26" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB26" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC26" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>283</v>
+      </c>
+      <c r="B27" t="str">
+        <f t="shared" si="0"/>
+        <v>CT2019_022</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="F27">
+        <v>16</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H27">
+        <v>72</v>
+      </c>
+      <c r="I27">
+        <v>46</v>
+      </c>
+      <c r="J27" t="s">
+        <v>77</v>
+      </c>
+      <c r="K27" t="s">
+        <v>78</v>
+      </c>
+      <c r="L27">
+        <v>426</v>
+      </c>
+      <c r="M27" t="s">
+        <v>256</v>
+      </c>
+      <c r="N27">
+        <v>15631</v>
+      </c>
+      <c r="O27" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="P27" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q27" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="R27" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="S27" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="T27" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="U27" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="V27" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="W27" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="X27">
+        <v>4.3</v>
+      </c>
+      <c r="Y27" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z27" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA27" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB27" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC27" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>284</v>
+      </c>
+      <c r="B28" t="str">
+        <f t="shared" si="0"/>
+        <v>CT2019_022</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="F28">
+        <v>30</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H28">
+        <v>59</v>
+      </c>
+      <c r="I28">
+        <v>35</v>
+      </c>
+      <c r="J28" t="s">
+        <v>77</v>
+      </c>
+      <c r="K28" t="s">
+        <v>78</v>
+      </c>
+      <c r="L28">
+        <v>427</v>
+      </c>
+      <c r="M28" t="s">
+        <v>96</v>
+      </c>
+      <c r="N28">
+        <v>15631</v>
+      </c>
+      <c r="O28" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="P28" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q28" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="R28" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="S28" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="T28" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="U28" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="V28" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="W28" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="X28">
+        <v>3.4</v>
+      </c>
+      <c r="Y28" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z28" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB28" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC28" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>285</v>
+      </c>
+      <c r="B29" t="str">
+        <f t="shared" si="0"/>
+        <v>CT2019_022</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="H29">
+        <v>53</v>
+      </c>
+      <c r="I29">
+        <v>30</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="L29">
+        <v>428</v>
+      </c>
+      <c r="M29" t="s">
+        <v>96</v>
+      </c>
+      <c r="N29">
+        <v>15631</v>
+      </c>
+      <c r="O29" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="P29" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q29" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="R29" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="S29" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="T29" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="U29" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="V29" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="W29" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="X29">
+        <v>1.5</v>
+      </c>
+      <c r="Y29" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="Z29" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AA29" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AB29" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AC29" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AD29" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="30" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>286</v>
+      </c>
+      <c r="B30" t="str">
+        <f t="shared" si="0"/>
+        <v>CT2019_023</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F30">
+        <v>30</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H30">
+        <v>54</v>
+      </c>
+      <c r="I30">
+        <v>31</v>
+      </c>
+      <c r="J30" t="s">
+        <v>77</v>
+      </c>
+      <c r="K30" t="s">
+        <v>78</v>
+      </c>
+      <c r="L30">
+        <v>429</v>
+      </c>
+      <c r="M30" t="s">
+        <v>96</v>
+      </c>
+      <c r="O30" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="P30" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q30" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="R30" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="S30" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="T30" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="U30" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="V30" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="W30" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="X30">
+        <v>0.7</v>
+      </c>
+      <c r="Y30" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="Z30" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AA30" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AB30" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AC30" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AD30" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="31" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>287</v>
+      </c>
+      <c r="B31" t="str">
+        <f t="shared" si="0"/>
+        <v>CT2019_023</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="F31">
+        <v>30</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H31">
+        <v>68</v>
+      </c>
+      <c r="I31">
+        <v>42</v>
+      </c>
+      <c r="J31" t="s">
+        <v>77</v>
+      </c>
+      <c r="K31" t="s">
+        <v>78</v>
+      </c>
+      <c r="L31">
+        <v>430</v>
+      </c>
+      <c r="M31" t="s">
+        <v>290</v>
+      </c>
+      <c r="O31" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="P31" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q31" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="R31" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="S31" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="T31" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="U31" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="V31" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="W31" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="X31">
+        <v>4.3</v>
+      </c>
+      <c r="Y31" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z31" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA31" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB31" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC31" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>305</v>
+      </c>
+      <c r="B32" t="str">
+        <f t="shared" si="0"/>
+        <v>CT2019_023</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="F32">
+        <v>18</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H32">
+        <v>71</v>
+      </c>
+      <c r="I32">
+        <v>48</v>
+      </c>
+      <c r="J32" t="s">
+        <v>77</v>
+      </c>
+      <c r="K32" t="s">
+        <v>78</v>
+      </c>
+      <c r="L32">
+        <v>431</v>
+      </c>
+      <c r="M32" t="s">
+        <v>297</v>
+      </c>
+      <c r="O32" t="s">
+        <v>138</v>
+      </c>
+      <c r="P32" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q32" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="R32" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="S32" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="T32" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="U32" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="V32" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="W32" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="X32">
+        <v>4.5</v>
+      </c>
+      <c r="Y32" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z32" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA32" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB32" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC32" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>306</v>
+      </c>
+      <c r="B33" t="str">
+        <f t="shared" si="0"/>
+        <v>CT2019_023</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="F33">
+        <v>18</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H33">
+        <v>71</v>
+      </c>
+      <c r="I33">
+        <v>43</v>
+      </c>
+      <c r="J33" t="s">
+        <v>77</v>
+      </c>
+      <c r="K33" t="s">
+        <v>78</v>
+      </c>
+      <c r="L33">
+        <v>432</v>
+      </c>
+      <c r="M33" t="s">
+        <v>96</v>
+      </c>
+      <c r="O33" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q33" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="R33" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="S33" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="T33" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="U33" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="V33" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="W33" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="X33">
+        <v>3.9</v>
+      </c>
+      <c r="Y33" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z33" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA33" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB33" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC33" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD33" t="s">
+        <v>304</v>
       </c>
     </row>
   </sheetData>
@@ -2184,20 +4365,20 @@
       <c r="I1" s="4"/>
       <c r="J1" s="4"/>
       <c r="K1" s="4"/>
-      <c r="L1" s="9" t="s">
+      <c r="L1" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
-      <c r="O1" s="10" t="s">
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="P1" s="9"/>
-      <c r="Q1" s="9"/>
-      <c r="R1" s="9" t="s">
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10"/>
+      <c r="R1" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="S1" s="9"/>
+      <c r="S1" s="10"/>
       <c r="T1" s="4"/>
       <c r="U1" s="4"/>
     </row>
@@ -2345,11 +4526,11 @@
       <c r="B9" t="s">
         <v>37</v>
       </c>
-      <c r="G9" s="9" t="s">
+      <c r="G9" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">

--- a/data/taggingData/tagChinData.xlsx
+++ b/data/taggingData/tagChinData.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2399" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2656" uniqueCount="405">
   <si>
     <t>event</t>
   </si>
@@ -946,6 +946,300 @@
   </si>
   <si>
     <t>CK32</t>
+  </si>
+  <si>
+    <t>024</t>
+  </si>
+  <si>
+    <t>1254</t>
+  </si>
+  <si>
+    <t>1259</t>
+  </si>
+  <si>
+    <t>20-21</t>
+  </si>
+  <si>
+    <t>forgot to PIT tag</t>
+  </si>
+  <si>
+    <t>1300</t>
+  </si>
+  <si>
+    <t>1304</t>
+  </si>
+  <si>
+    <t>CF19</t>
+  </si>
+  <si>
+    <t>22-23</t>
+  </si>
+  <si>
+    <t>19986</t>
+  </si>
+  <si>
+    <t>7707</t>
+  </si>
+  <si>
+    <t>1.9</t>
+  </si>
+  <si>
+    <t>025</t>
+  </si>
+  <si>
+    <t>1316</t>
+  </si>
+  <si>
+    <t>1321</t>
+  </si>
+  <si>
+    <t>CF20</t>
+  </si>
+  <si>
+    <t>24-25</t>
+  </si>
+  <si>
+    <t>19976</t>
+  </si>
+  <si>
+    <t>7708</t>
+  </si>
+  <si>
+    <t>2.3</t>
+  </si>
+  <si>
+    <t>1322</t>
+  </si>
+  <si>
+    <t>26-27</t>
+  </si>
+  <si>
+    <t>20048</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>7.8</t>
+  </si>
+  <si>
+    <t>lots of wounds</t>
+  </si>
+  <si>
+    <t>1327</t>
+  </si>
+  <si>
+    <t>1331</t>
+  </si>
+  <si>
+    <t>28-29</t>
+  </si>
+  <si>
+    <t>20035</t>
+  </si>
+  <si>
+    <t>AN</t>
+  </si>
+  <si>
+    <t>8.5</t>
+  </si>
+  <si>
+    <t>CK33</t>
+  </si>
+  <si>
+    <t>CK34</t>
+  </si>
+  <si>
+    <t>CK35</t>
+  </si>
+  <si>
+    <t>CK36</t>
+  </si>
+  <si>
+    <t>CK37</t>
+  </si>
+  <si>
+    <t>026</t>
+  </si>
+  <si>
+    <t>0620</t>
+  </si>
+  <si>
+    <t>0625</t>
+  </si>
+  <si>
+    <t>CF21</t>
+  </si>
+  <si>
+    <t>30-31</t>
+  </si>
+  <si>
+    <t>20054</t>
+  </si>
+  <si>
+    <t>7709</t>
+  </si>
+  <si>
+    <t>5.3</t>
+  </si>
+  <si>
+    <t>0628</t>
+  </si>
+  <si>
+    <t>32-33</t>
+  </si>
+  <si>
+    <t>20011</t>
+  </si>
+  <si>
+    <t>7.4</t>
+  </si>
+  <si>
+    <t>027</t>
+  </si>
+  <si>
+    <t>0650</t>
+  </si>
+  <si>
+    <t>0653</t>
+  </si>
+  <si>
+    <t>34-35</t>
+  </si>
+  <si>
+    <t>20052</t>
+  </si>
+  <si>
+    <t>11.6</t>
+  </si>
+  <si>
+    <t>0707</t>
+  </si>
+  <si>
+    <t>0710</t>
+  </si>
+  <si>
+    <t>36-37</t>
+  </si>
+  <si>
+    <t>20041</t>
+  </si>
+  <si>
+    <t>5.8</t>
+  </si>
+  <si>
+    <t>029</t>
+  </si>
+  <si>
+    <t>0815</t>
+  </si>
+  <si>
+    <t>0818</t>
+  </si>
+  <si>
+    <t>20049</t>
+  </si>
+  <si>
+    <t>5.5</t>
+  </si>
+  <si>
+    <t>PIT bleed</t>
+  </si>
+  <si>
+    <t>030</t>
+  </si>
+  <si>
+    <t>0823</t>
+  </si>
+  <si>
+    <t>19989</t>
+  </si>
+  <si>
+    <t>3.4</t>
+  </si>
+  <si>
+    <t>0827</t>
+  </si>
+  <si>
+    <t>0830</t>
+  </si>
+  <si>
+    <t>42-43</t>
+  </si>
+  <si>
+    <t>20020</t>
+  </si>
+  <si>
+    <t>3.0</t>
+  </si>
+  <si>
+    <t>0833</t>
+  </si>
+  <si>
+    <t>0835</t>
+  </si>
+  <si>
+    <t>44-45</t>
+  </si>
+  <si>
+    <t>20044</t>
+  </si>
+  <si>
+    <t>4.5</t>
+  </si>
+  <si>
+    <t>0836</t>
+  </si>
+  <si>
+    <t>0840</t>
+  </si>
+  <si>
+    <t>CF22</t>
+  </si>
+  <si>
+    <t>46-47</t>
+  </si>
+  <si>
+    <t>20016</t>
+  </si>
+  <si>
+    <t>7711</t>
+  </si>
+  <si>
+    <t>8.2</t>
+  </si>
+  <si>
+    <t>4.1</t>
+  </si>
+  <si>
+    <t>033</t>
+  </si>
+  <si>
+    <t>1013</t>
+  </si>
+  <si>
+    <t>48-50</t>
+  </si>
+  <si>
+    <t>19992</t>
+  </si>
+  <si>
+    <t>eye</t>
+  </si>
+  <si>
+    <t>7.0</t>
+  </si>
+  <si>
+    <t>lots of lice; missing eye</t>
+  </si>
+  <si>
+    <t>1015</t>
+  </si>
+  <si>
+    <t>1017</t>
+  </si>
+  <si>
+    <t>19983</t>
   </si>
 </sst>
 </file>
@@ -1324,10 +1618,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD33"/>
+  <dimension ref="A1:AD49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="T49" sqref="T49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1338,7 +1632,7 @@
     <col min="15" max="15" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="11.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="12.5546875" style="1" customWidth="1"/>
-    <col min="18" max="23" width="8.88671875" style="1"/>
+    <col min="18" max="24" width="8.88671875" style="1"/>
     <col min="25" max="29" width="8.88671875" style="9"/>
   </cols>
   <sheetData>
@@ -1412,7 +1706,7 @@
       <c r="W1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="X1" t="s">
+      <c r="X1" s="1" t="s">
         <v>22</v>
       </c>
       <c r="Y1" s="9" t="s">
@@ -1505,7 +1799,7 @@
       <c r="W2" s="1">
         <v>10.9</v>
       </c>
-      <c r="X2">
+      <c r="X2" s="1">
         <v>6.3</v>
       </c>
       <c r="Y2" s="9">
@@ -1529,7 +1823,7 @@
         <v>89</v>
       </c>
       <c r="B3" t="str">
-        <f t="shared" ref="B3:B33" si="0">"CT2019"&amp;"_"&amp;C3</f>
+        <f t="shared" ref="B3:B49" si="0">"CT2019"&amp;"_"&amp;C3</f>
         <v>CT2019_002</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -1595,7 +1889,7 @@
       <c r="W3" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="X3" t="s">
+      <c r="X3" s="1" t="s">
         <v>96</v>
       </c>
       <c r="Y3" s="9">
@@ -1688,7 +1982,7 @@
       <c r="W4" s="1">
         <v>9.8000000000000007</v>
       </c>
-      <c r="X4">
+      <c r="X4" s="1">
         <v>5.9</v>
       </c>
       <c r="Y4" s="9">
@@ -1781,7 +2075,7 @@
       <c r="W5" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="X5" t="s">
+      <c r="X5" s="1" t="s">
         <v>96</v>
       </c>
       <c r="Y5" s="9">
@@ -1874,7 +2168,7 @@
       <c r="W6" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="X6" t="s">
+      <c r="X6" s="1" t="s">
         <v>96</v>
       </c>
       <c r="Y6" s="9">
@@ -1967,7 +2261,7 @@
       <c r="W7" s="1">
         <v>10.6</v>
       </c>
-      <c r="X7">
+      <c r="X7" s="1">
         <v>7.7</v>
       </c>
       <c r="Y7" s="9">
@@ -2057,7 +2351,7 @@
       <c r="W8" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="X8" t="s">
+      <c r="X8" s="1" t="s">
         <v>96</v>
       </c>
       <c r="Y8" s="9">
@@ -2147,7 +2441,7 @@
       <c r="W9" s="1">
         <v>8.1999999999999993</v>
       </c>
-      <c r="X9">
+      <c r="X9" s="1">
         <v>4.4000000000000004</v>
       </c>
       <c r="Y9" s="9">
@@ -2237,7 +2531,7 @@
       <c r="W10" s="1">
         <v>6.5</v>
       </c>
-      <c r="X10">
+      <c r="X10" s="1">
         <v>5.6</v>
       </c>
       <c r="Y10" s="9">
@@ -2327,7 +2621,7 @@
       <c r="W11" s="1">
         <v>6.2</v>
       </c>
-      <c r="X11">
+      <c r="X11" s="1">
         <v>1.4</v>
       </c>
       <c r="Y11" s="9">
@@ -2417,7 +2711,7 @@
       <c r="W12" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="X12" t="s">
+      <c r="X12" s="1" t="s">
         <v>96</v>
       </c>
       <c r="Y12" s="9">
@@ -2786,7 +3080,7 @@
       <c r="W16" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="X16">
+      <c r="X16" s="1">
         <v>3.1</v>
       </c>
       <c r="Y16" s="9">
@@ -2876,7 +3170,7 @@
       <c r="W17" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="X17">
+      <c r="X17" s="1">
         <v>5.8</v>
       </c>
       <c r="Y17" s="9">
@@ -2966,7 +3260,7 @@
       <c r="W18" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="X18">
+      <c r="X18" s="1">
         <v>2.2999999999999998</v>
       </c>
       <c r="Y18" s="9">
@@ -3056,7 +3350,7 @@
       <c r="W19" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="X19">
+      <c r="X19" s="1">
         <v>1.8</v>
       </c>
       <c r="Y19" s="9">
@@ -3146,7 +3440,7 @@
       <c r="W20" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="X20">
+      <c r="X20" s="1">
         <v>2.4</v>
       </c>
       <c r="Y20" s="9">
@@ -3236,7 +3530,7 @@
       <c r="W21" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="X21">
+      <c r="X21" s="1">
         <v>7.6</v>
       </c>
       <c r="Y21" s="9">
@@ -3326,7 +3620,7 @@
       <c r="W22" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="X22">
+      <c r="X22" s="1">
         <v>1.5</v>
       </c>
       <c r="Y22" s="9">
@@ -3416,7 +3710,7 @@
       <c r="W23" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="X23">
+      <c r="X23" s="1">
         <v>7.2</v>
       </c>
       <c r="Y23" s="9">
@@ -3506,7 +3800,7 @@
       <c r="W24" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="X24">
+      <c r="X24" s="1">
         <v>3.2</v>
       </c>
       <c r="Y24" s="9">
@@ -3596,7 +3890,7 @@
       <c r="W25" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="X25">
+      <c r="X25" s="1">
         <v>1.5</v>
       </c>
       <c r="Y25" s="9">
@@ -3686,7 +3980,7 @@
       <c r="W26" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="X26">
+      <c r="X26" s="1">
         <v>1.4</v>
       </c>
       <c r="Y26" s="9">
@@ -3776,7 +4070,7 @@
       <c r="W27" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="X27">
+      <c r="X27" s="1">
         <v>4.3</v>
       </c>
       <c r="Y27" s="9">
@@ -3866,7 +4160,7 @@
       <c r="W28" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="X28">
+      <c r="X28" s="1">
         <v>3.4</v>
       </c>
       <c r="Y28" s="9">
@@ -3956,7 +4250,7 @@
       <c r="W29" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="X29">
+      <c r="X29" s="1">
         <v>1.5</v>
       </c>
       <c r="Y29" s="1" t="s">
@@ -4019,6 +4313,9 @@
       <c r="M30" t="s">
         <v>96</v>
       </c>
+      <c r="N30">
+        <v>15631</v>
+      </c>
       <c r="O30" s="1" t="s">
         <v>269</v>
       </c>
@@ -4046,7 +4343,7 @@
       <c r="W30" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="X30">
+      <c r="X30" s="1">
         <v>0.7</v>
       </c>
       <c r="Y30" s="1" t="s">
@@ -4109,6 +4406,9 @@
       <c r="M31" t="s">
         <v>290</v>
       </c>
+      <c r="N31">
+        <v>15631</v>
+      </c>
       <c r="O31" s="1" t="s">
         <v>134</v>
       </c>
@@ -4136,7 +4436,7 @@
       <c r="W31" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="X31">
+      <c r="X31" s="1">
         <v>4.3</v>
       </c>
       <c r="Y31" s="9">
@@ -4196,6 +4496,9 @@
       <c r="M32" t="s">
         <v>297</v>
       </c>
+      <c r="N32">
+        <v>15631</v>
+      </c>
       <c r="O32" t="s">
         <v>138</v>
       </c>
@@ -4223,7 +4526,7 @@
       <c r="W32" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="X32">
+      <c r="X32" s="1">
         <v>4.5</v>
       </c>
       <c r="Y32" s="9">
@@ -4283,9 +4586,15 @@
       <c r="M33" t="s">
         <v>96</v>
       </c>
+      <c r="N33">
+        <v>15631</v>
+      </c>
       <c r="O33" s="1" t="s">
         <v>151</v>
       </c>
+      <c r="P33" s="1" t="s">
+        <v>84</v>
+      </c>
       <c r="Q33" s="1" t="s">
         <v>303</v>
       </c>
@@ -4307,7 +4616,7 @@
       <c r="W33" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="X33">
+      <c r="X33" s="1">
         <v>3.9</v>
       </c>
       <c r="Y33" s="9">
@@ -4327,6 +4636,1368 @@
       </c>
       <c r="AD33" t="s">
         <v>304</v>
+      </c>
+    </row>
+    <row r="34" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>339</v>
+      </c>
+      <c r="B34" t="str">
+        <f t="shared" si="0"/>
+        <v>CT2019_024</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="F34">
+        <v>30</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H34">
+        <v>57</v>
+      </c>
+      <c r="I34">
+        <v>32</v>
+      </c>
+      <c r="J34" t="s">
+        <v>77</v>
+      </c>
+      <c r="K34" t="s">
+        <v>78</v>
+      </c>
+      <c r="L34">
+        <v>433</v>
+      </c>
+      <c r="M34" t="s">
+        <v>96</v>
+      </c>
+      <c r="N34">
+        <v>15631</v>
+      </c>
+      <c r="O34" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="P34" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q34" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="R34" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="S34" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="T34" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="U34" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="V34" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="W34" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="X34" s="1">
+        <v>1.3</v>
+      </c>
+      <c r="Y34" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z34" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA34" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB34" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC34" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD34" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="35" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>340</v>
+      </c>
+      <c r="B35" t="str">
+        <f t="shared" si="0"/>
+        <v>CT2019_024</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="F35">
+        <v>18</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H35">
+        <v>63</v>
+      </c>
+      <c r="I35">
+        <v>38</v>
+      </c>
+      <c r="J35" t="s">
+        <v>77</v>
+      </c>
+      <c r="K35" t="s">
+        <v>78</v>
+      </c>
+      <c r="L35">
+        <v>434</v>
+      </c>
+      <c r="M35" t="s">
+        <v>314</v>
+      </c>
+      <c r="N35">
+        <v>15631</v>
+      </c>
+      <c r="O35" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="P35" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q35" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="R35" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="S35" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="T35" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="U35" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="V35" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="W35" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="X35" s="1">
+        <v>1.6</v>
+      </c>
+      <c r="Y35" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z35" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA35" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB35" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC35" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>341</v>
+      </c>
+      <c r="B36" t="str">
+        <f t="shared" si="0"/>
+        <v>CT2019_025</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="F36">
+        <v>26</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H36">
+        <v>62</v>
+      </c>
+      <c r="I36">
+        <v>34</v>
+      </c>
+      <c r="J36" t="s">
+        <v>77</v>
+      </c>
+      <c r="K36" t="s">
+        <v>78</v>
+      </c>
+      <c r="L36">
+        <v>435</v>
+      </c>
+      <c r="M36" t="s">
+        <v>322</v>
+      </c>
+      <c r="N36">
+        <v>15631</v>
+      </c>
+      <c r="O36" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="P36" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q36" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="R36" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="S36" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="T36" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="U36" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="V36" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="W36" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="X36" s="1">
+        <v>1.9</v>
+      </c>
+      <c r="Y36" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z36" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA36" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB36" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC36" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>342</v>
+      </c>
+      <c r="B37" t="str">
+        <f t="shared" si="0"/>
+        <v>CT2019_025</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F37">
+        <v>30</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H37">
+        <v>72</v>
+      </c>
+      <c r="I37">
+        <v>47</v>
+      </c>
+      <c r="J37" t="s">
+        <v>77</v>
+      </c>
+      <c r="K37" t="s">
+        <v>78</v>
+      </c>
+      <c r="L37">
+        <v>436</v>
+      </c>
+      <c r="M37" t="s">
+        <v>96</v>
+      </c>
+      <c r="N37">
+        <v>15631</v>
+      </c>
+      <c r="O37" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="P37" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q37" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="R37" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="S37" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="T37" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="U37" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="V37" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="W37" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="X37" s="1">
+        <v>3.8</v>
+      </c>
+      <c r="Y37" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z37" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA37" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB37" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC37" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD37" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="38" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>343</v>
+      </c>
+      <c r="B38" t="str">
+        <f t="shared" si="0"/>
+        <v>CT2019_025</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="F38">
+        <v>18</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H38">
+        <v>72</v>
+      </c>
+      <c r="I38">
+        <v>42</v>
+      </c>
+      <c r="J38" t="s">
+        <v>77</v>
+      </c>
+      <c r="K38" t="s">
+        <v>78</v>
+      </c>
+      <c r="L38">
+        <v>437</v>
+      </c>
+      <c r="M38" t="s">
+        <v>96</v>
+      </c>
+      <c r="N38">
+        <v>15631</v>
+      </c>
+      <c r="O38" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="P38" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q38" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="R38" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="S38" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="T38" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="U38" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="V38" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="W38" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="X38" s="1">
+        <v>3.9</v>
+      </c>
+      <c r="Y38" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z38" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA38" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB38" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC38" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD38" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="39" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="B39" t="str">
+        <f t="shared" si="0"/>
+        <v>CT2019_026</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="F39">
+        <v>18</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H39">
+        <v>76</v>
+      </c>
+      <c r="I39">
+        <v>44</v>
+      </c>
+      <c r="J39" t="s">
+        <v>77</v>
+      </c>
+      <c r="K39" t="s">
+        <v>78</v>
+      </c>
+      <c r="L39">
+        <v>438</v>
+      </c>
+      <c r="M39" t="s">
+        <v>347</v>
+      </c>
+      <c r="N39">
+        <v>15631</v>
+      </c>
+      <c r="O39" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="Q39" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="R39" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="S39" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="T39" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="U39" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="V39" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="W39" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="X39" s="1">
+        <v>3.7</v>
+      </c>
+      <c r="Y39" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z39" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA39" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB39" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC39" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="B40" t="str">
+        <f t="shared" si="0"/>
+        <v>CT2019_026</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="F40">
+        <v>12</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H40">
+        <v>93</v>
+      </c>
+      <c r="I40">
+        <v>56</v>
+      </c>
+      <c r="J40" t="s">
+        <v>77</v>
+      </c>
+      <c r="K40" t="s">
+        <v>78</v>
+      </c>
+      <c r="L40">
+        <v>439</v>
+      </c>
+      <c r="M40" t="s">
+        <v>96</v>
+      </c>
+      <c r="N40">
+        <v>15631</v>
+      </c>
+      <c r="O40" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="Q40" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="R40" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="S40" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="T40" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="U40" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="V40" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="W40" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="X40" s="1">
+        <v>5.6</v>
+      </c>
+      <c r="Y40" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z40" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA40" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB40" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC40" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD40" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="41" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="B41" t="str">
+        <f t="shared" si="0"/>
+        <v>CT2019_027</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="F41">
+        <v>18</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H41">
+        <v>56</v>
+      </c>
+      <c r="I41">
+        <v>33</v>
+      </c>
+      <c r="J41" t="s">
+        <v>77</v>
+      </c>
+      <c r="K41" t="s">
+        <v>78</v>
+      </c>
+      <c r="L41">
+        <v>440</v>
+      </c>
+      <c r="M41" t="s">
+        <v>96</v>
+      </c>
+      <c r="N41">
+        <v>15631</v>
+      </c>
+      <c r="O41" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="Q41" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="R41" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="S41" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="T41" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="U41" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="V41" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="W41" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="X41" s="1">
+        <v>6.1</v>
+      </c>
+      <c r="Y41" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z41" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA41" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB41" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC41" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="B42" t="str">
+        <f t="shared" si="0"/>
+        <v>CT2019_027</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="F42">
+        <v>18</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H42">
+        <v>75</v>
+      </c>
+      <c r="I42">
+        <v>47</v>
+      </c>
+      <c r="J42" t="s">
+        <v>77</v>
+      </c>
+      <c r="K42" t="s">
+        <v>78</v>
+      </c>
+      <c r="L42">
+        <v>441</v>
+      </c>
+      <c r="M42" t="s">
+        <v>96</v>
+      </c>
+      <c r="N42">
+        <v>15631</v>
+      </c>
+      <c r="O42" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="Q42" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="R42" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="S42" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="T42" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="U42" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="V42" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="W42" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="X42" s="1">
+        <v>3.6</v>
+      </c>
+      <c r="Y42" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z42" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA42" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB42" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC42" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="B43" t="str">
+        <f t="shared" si="0"/>
+        <v>CT2019_029</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="F43">
+        <v>18</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H43">
+        <v>72</v>
+      </c>
+      <c r="I43">
+        <v>41</v>
+      </c>
+      <c r="J43" t="s">
+        <v>77</v>
+      </c>
+      <c r="K43" t="s">
+        <v>78</v>
+      </c>
+      <c r="L43">
+        <v>442</v>
+      </c>
+      <c r="M43" t="s">
+        <v>96</v>
+      </c>
+      <c r="N43">
+        <v>15631</v>
+      </c>
+      <c r="O43" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="Q43" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="R43" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="S43" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="T43" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="U43" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="V43" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="W43" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="X43" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="Y43" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z43" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA43" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB43" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC43" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD43" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="44" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="B44" t="str">
+        <f t="shared" si="0"/>
+        <v>CT2019_030</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="F44">
+        <v>14</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H44">
+        <v>70</v>
+      </c>
+      <c r="I44">
+        <v>42</v>
+      </c>
+      <c r="J44" t="s">
+        <v>77</v>
+      </c>
+      <c r="K44" t="s">
+        <v>132</v>
+      </c>
+      <c r="L44">
+        <v>443</v>
+      </c>
+      <c r="M44" t="s">
+        <v>96</v>
+      </c>
+      <c r="N44">
+        <v>15631</v>
+      </c>
+      <c r="O44" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="Q44" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="R44" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="S44" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="T44" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="U44" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="V44" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="W44" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="X44" s="1">
+        <v>1.3</v>
+      </c>
+      <c r="Y44" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z44" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA44" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB44" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC44" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="B45" t="str">
+        <f t="shared" si="0"/>
+        <v>CT2019_030</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="F45">
+        <v>18</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H45">
+        <v>67</v>
+      </c>
+      <c r="I45">
+        <v>39</v>
+      </c>
+      <c r="J45" t="s">
+        <v>77</v>
+      </c>
+      <c r="K45" t="s">
+        <v>132</v>
+      </c>
+      <c r="L45">
+        <v>444</v>
+      </c>
+      <c r="M45" t="s">
+        <v>96</v>
+      </c>
+      <c r="N45">
+        <v>15631</v>
+      </c>
+      <c r="O45" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="Q45" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="R45" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="S45" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="T45" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="U45" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="V45" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="W45" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="X45" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="Y45" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z45" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA45" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB45" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC45" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="B46" t="str">
+        <f t="shared" si="0"/>
+        <v>CT2019_030</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="F46">
+        <v>16</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H46">
+        <v>77</v>
+      </c>
+      <c r="I46">
+        <v>45</v>
+      </c>
+      <c r="J46" t="s">
+        <v>77</v>
+      </c>
+      <c r="K46" t="s">
+        <v>132</v>
+      </c>
+      <c r="L46">
+        <v>445</v>
+      </c>
+      <c r="M46" t="s">
+        <v>96</v>
+      </c>
+      <c r="N46">
+        <v>15631</v>
+      </c>
+      <c r="O46" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="Q46" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="R46" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="S46" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="T46" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="U46" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="V46" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="W46" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="X46" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="Y46" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z46" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA46" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB46" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC46" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="B47" t="str">
+        <f t="shared" si="0"/>
+        <v>CT2019_030</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="F47">
+        <v>18</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H47">
+        <v>71</v>
+      </c>
+      <c r="I47">
+        <v>44</v>
+      </c>
+      <c r="J47" t="s">
+        <v>77</v>
+      </c>
+      <c r="K47" t="s">
+        <v>132</v>
+      </c>
+      <c r="L47">
+        <v>446</v>
+      </c>
+      <c r="M47" t="s">
+        <v>389</v>
+      </c>
+      <c r="N47">
+        <v>15631</v>
+      </c>
+      <c r="O47" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="Q47" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="R47" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="S47" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="T47" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="U47" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="V47" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="W47" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="X47" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="Y47" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z47" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA47" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB47" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC47" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="B48" t="str">
+        <f t="shared" si="0"/>
+        <v>CT2019_033</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="F48">
+        <v>18</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H48">
+        <v>71</v>
+      </c>
+      <c r="I48">
+        <v>43</v>
+      </c>
+      <c r="J48" t="s">
+        <v>399</v>
+      </c>
+      <c r="K48" t="s">
+        <v>78</v>
+      </c>
+      <c r="L48">
+        <v>447</v>
+      </c>
+      <c r="M48" t="s">
+        <v>96</v>
+      </c>
+      <c r="N48">
+        <v>15631</v>
+      </c>
+      <c r="O48" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="Q48" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="R48" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="S48" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="T48" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="U48" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="V48" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="W48" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="X48" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="Y48" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z48" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA48" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB48" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC48" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD48" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="49" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B49" t="str">
+        <f t="shared" si="0"/>
+        <v>CT2019_033</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="F49">
+        <v>18</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H49">
+        <v>63</v>
+      </c>
+      <c r="I49">
+        <v>34</v>
+      </c>
+      <c r="J49" t="s">
+        <v>77</v>
+      </c>
+      <c r="K49" t="s">
+        <v>132</v>
+      </c>
+      <c r="L49">
+        <v>448</v>
+      </c>
+      <c r="M49" t="s">
+        <v>96</v>
+      </c>
+      <c r="N49">
+        <v>15632</v>
+      </c>
+      <c r="O49" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q49" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="R49" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="S49" s="1" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>

--- a/data/taggingData/tagChinData.xlsx
+++ b/data/taggingData/tagChinData.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6120" uniqueCount="1419">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6139" uniqueCount="1427">
   <si>
     <t>event</t>
   </si>
@@ -4280,6 +4280,30 @@
   </si>
   <si>
     <t>8.7</t>
+  </si>
+  <si>
+    <t>CK230</t>
+  </si>
+  <si>
+    <t>186</t>
+  </si>
+  <si>
+    <t>1456</t>
+  </si>
+  <si>
+    <t>1500</t>
+  </si>
+  <si>
+    <t>CF88</t>
+  </si>
+  <si>
+    <t>19861</t>
+  </si>
+  <si>
+    <t>089</t>
+  </si>
+  <si>
+    <t>8197</t>
   </si>
 </sst>
 </file>
@@ -4381,8 +4405,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="165">
+  <cellStyleXfs count="167">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -4568,7 +4594,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="165">
+  <cellStyles count="167">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -4651,6 +4677,7 @@
     <cellStyle name="Followed Hyperlink" xfId="160" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="162" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="164" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="166" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -4733,6 +4760,7 @@
     <cellStyle name="Hyperlink" xfId="159" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="161" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="163" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="165" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -5011,11 +5039,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD230"/>
+  <dimension ref="A1:AD231"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="O1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A204" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AD216" sqref="AD216"/>
+      <pane ySplit="1" topLeftCell="A202" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AD231" sqref="AD231"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -20011,7 +20039,7 @@
         <v>797</v>
       </c>
       <c r="B166" t="str">
-        <f t="shared" ref="B166:B230" si="3">"CT2019"&amp;"_"&amp;C166</f>
+        <f t="shared" ref="B166:B231" si="3">"CT2019"&amp;"_"&amp;C166</f>
         <v>CT2019_120</v>
       </c>
       <c r="C166" s="1" t="s">
@@ -25895,6 +25923,96 @@
         <v>0</v>
       </c>
       <c r="AC230" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:29">
+      <c r="A231" t="s">
+        <v>1419</v>
+      </c>
+      <c r="B231" t="str">
+        <f t="shared" si="3"/>
+        <v>CT2019_186</v>
+      </c>
+      <c r="C231" s="1" t="s">
+        <v>1420</v>
+      </c>
+      <c r="D231" s="1" t="s">
+        <v>1421</v>
+      </c>
+      <c r="E231" s="1" t="s">
+        <v>1422</v>
+      </c>
+      <c r="F231">
+        <v>24</v>
+      </c>
+      <c r="G231" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H231">
+        <v>83</v>
+      </c>
+      <c r="I231">
+        <v>48</v>
+      </c>
+      <c r="J231" t="s">
+        <v>77</v>
+      </c>
+      <c r="K231" t="s">
+        <v>78</v>
+      </c>
+      <c r="L231">
+        <v>841</v>
+      </c>
+      <c r="M231" t="s">
+        <v>1423</v>
+      </c>
+      <c r="N231" s="1" t="s">
+        <v>1395</v>
+      </c>
+      <c r="O231" s="1" t="s">
+        <v>1308</v>
+      </c>
+      <c r="P231" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q231" s="1" t="s">
+        <v>1424</v>
+      </c>
+      <c r="R231" s="1" t="s">
+        <v>1425</v>
+      </c>
+      <c r="S231" s="1" t="s">
+        <v>1426</v>
+      </c>
+      <c r="T231" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="U231" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="V231" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="W231" s="1" t="s">
+        <v>910</v>
+      </c>
+      <c r="X231" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="Y231" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z231" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA231" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB231" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC231" s="9">
         <v>0</v>
       </c>
     </row>

--- a/data/taggingData/tagChinData.xlsx
+++ b/data/taggingData/tagChinData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="27729"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-460" windowWidth="28800" windowHeight="18000"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="17540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6139" uniqueCount="1427">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7358" uniqueCount="1671">
   <si>
     <t>event</t>
   </si>
@@ -4304,6 +4304,738 @@
   </si>
   <si>
     <t>8197</t>
+  </si>
+  <si>
+    <t>187</t>
+  </si>
+  <si>
+    <t>CK231</t>
+  </si>
+  <si>
+    <t>CK232</t>
+  </si>
+  <si>
+    <t>CK233</t>
+  </si>
+  <si>
+    <t>CK234</t>
+  </si>
+  <si>
+    <t>CK235</t>
+  </si>
+  <si>
+    <t>CK236</t>
+  </si>
+  <si>
+    <t>CK237</t>
+  </si>
+  <si>
+    <t>CK238</t>
+  </si>
+  <si>
+    <t>CK239</t>
+  </si>
+  <si>
+    <t>CK240</t>
+  </si>
+  <si>
+    <t>CK241</t>
+  </si>
+  <si>
+    <t>CK242</t>
+  </si>
+  <si>
+    <t>CK243</t>
+  </si>
+  <si>
+    <t>CK244</t>
+  </si>
+  <si>
+    <t>CK245</t>
+  </si>
+  <si>
+    <t>188</t>
+  </si>
+  <si>
+    <t>189</t>
+  </si>
+  <si>
+    <t>0904</t>
+  </si>
+  <si>
+    <t>0922</t>
+  </si>
+  <si>
+    <t>0929</t>
+  </si>
+  <si>
+    <t>0938</t>
+  </si>
+  <si>
+    <t>0945</t>
+  </si>
+  <si>
+    <t>0852</t>
+  </si>
+  <si>
+    <t>0856</t>
+  </si>
+  <si>
+    <t>0924</t>
+  </si>
+  <si>
+    <t>0952</t>
+  </si>
+  <si>
+    <t>CF89</t>
+  </si>
+  <si>
+    <t>CF90</t>
+  </si>
+  <si>
+    <t>08016</t>
+  </si>
+  <si>
+    <t>08017</t>
+  </si>
+  <si>
+    <t>08018</t>
+  </si>
+  <si>
+    <t>08019</t>
+  </si>
+  <si>
+    <t>08004</t>
+  </si>
+  <si>
+    <t>19894</t>
+  </si>
+  <si>
+    <t>19881</t>
+  </si>
+  <si>
+    <t>19948</t>
+  </si>
+  <si>
+    <t>19928</t>
+  </si>
+  <si>
+    <t>19921</t>
+  </si>
+  <si>
+    <t>19912</t>
+  </si>
+  <si>
+    <t>19875</t>
+  </si>
+  <si>
+    <t>19949</t>
+  </si>
+  <si>
+    <t>19889</t>
+  </si>
+  <si>
+    <t>19897</t>
+  </si>
+  <si>
+    <t>19920</t>
+  </si>
+  <si>
+    <t>19944</t>
+  </si>
+  <si>
+    <t>19864</t>
+  </si>
+  <si>
+    <t>19951</t>
+  </si>
+  <si>
+    <t>19958</t>
+  </si>
+  <si>
+    <t>090</t>
+  </si>
+  <si>
+    <t>091</t>
+  </si>
+  <si>
+    <t>8198</t>
+  </si>
+  <si>
+    <t>8199</t>
+  </si>
+  <si>
+    <t>0.5</t>
+  </si>
+  <si>
+    <t>1.1</t>
+  </si>
+  <si>
+    <t>CK246</t>
+  </si>
+  <si>
+    <t>CK247</t>
+  </si>
+  <si>
+    <t>CK248</t>
+  </si>
+  <si>
+    <t>CK249</t>
+  </si>
+  <si>
+    <t>CK250</t>
+  </si>
+  <si>
+    <t>CK251</t>
+  </si>
+  <si>
+    <t>CK252</t>
+  </si>
+  <si>
+    <t>CK253</t>
+  </si>
+  <si>
+    <t>CK254</t>
+  </si>
+  <si>
+    <t>CK255</t>
+  </si>
+  <si>
+    <t>CK256</t>
+  </si>
+  <si>
+    <t>CK257</t>
+  </si>
+  <si>
+    <t>CK258</t>
+  </si>
+  <si>
+    <t>CK259</t>
+  </si>
+  <si>
+    <t>CK260</t>
+  </si>
+  <si>
+    <t>191</t>
+  </si>
+  <si>
+    <t>192</t>
+  </si>
+  <si>
+    <t>193</t>
+  </si>
+  <si>
+    <t>194</t>
+  </si>
+  <si>
+    <t>195</t>
+  </si>
+  <si>
+    <t>196</t>
+  </si>
+  <si>
+    <t>201</t>
+  </si>
+  <si>
+    <t>1232</t>
+  </si>
+  <si>
+    <t>1310</t>
+  </si>
+  <si>
+    <t>1315</t>
+  </si>
+  <si>
+    <t>1320</t>
+  </si>
+  <si>
+    <t>1328</t>
+  </si>
+  <si>
+    <t>1359</t>
+  </si>
+  <si>
+    <t>1413</t>
+  </si>
+  <si>
+    <t>1429</t>
+  </si>
+  <si>
+    <t>1601</t>
+  </si>
+  <si>
+    <t>1125</t>
+  </si>
+  <si>
+    <t>1235</t>
+  </si>
+  <si>
+    <t>1332</t>
+  </si>
+  <si>
+    <t>1347</t>
+  </si>
+  <si>
+    <t>1401</t>
+  </si>
+  <si>
+    <t>1416</t>
+  </si>
+  <si>
+    <t>1434</t>
+  </si>
+  <si>
+    <t>1604</t>
+  </si>
+  <si>
+    <t>CF91</t>
+  </si>
+  <si>
+    <t>CF92</t>
+  </si>
+  <si>
+    <t>CF93</t>
+  </si>
+  <si>
+    <t>CF94</t>
+  </si>
+  <si>
+    <t>CF95</t>
+  </si>
+  <si>
+    <t>CF96</t>
+  </si>
+  <si>
+    <t>CF97</t>
+  </si>
+  <si>
+    <t>19939</t>
+  </si>
+  <si>
+    <t>19895</t>
+  </si>
+  <si>
+    <t>19933</t>
+  </si>
+  <si>
+    <t>19884</t>
+  </si>
+  <si>
+    <t>19901</t>
+  </si>
+  <si>
+    <t>19937</t>
+  </si>
+  <si>
+    <t>19914</t>
+  </si>
+  <si>
+    <t>19955</t>
+  </si>
+  <si>
+    <t>19872</t>
+  </si>
+  <si>
+    <t>19953</t>
+  </si>
+  <si>
+    <t>19879</t>
+  </si>
+  <si>
+    <t>19935</t>
+  </si>
+  <si>
+    <t>19926</t>
+  </si>
+  <si>
+    <t>19896</t>
+  </si>
+  <si>
+    <t>19885</t>
+  </si>
+  <si>
+    <t>093</t>
+  </si>
+  <si>
+    <t>094</t>
+  </si>
+  <si>
+    <t>095</t>
+  </si>
+  <si>
+    <t>097</t>
+  </si>
+  <si>
+    <t>thrashed; no acoustic</t>
+  </si>
+  <si>
+    <t>8200</t>
+  </si>
+  <si>
+    <t>8201</t>
+  </si>
+  <si>
+    <t>8202</t>
+  </si>
+  <si>
+    <t>8203</t>
+  </si>
+  <si>
+    <t>8204</t>
+  </si>
+  <si>
+    <t>8205</t>
+  </si>
+  <si>
+    <t>tail damage and bleed</t>
+  </si>
+  <si>
+    <t>bleed</t>
+  </si>
+  <si>
+    <t>snout wound</t>
+  </si>
+  <si>
+    <t>CK261</t>
+  </si>
+  <si>
+    <t>CK262</t>
+  </si>
+  <si>
+    <t>CK263</t>
+  </si>
+  <si>
+    <t>CK264</t>
+  </si>
+  <si>
+    <t>CK265</t>
+  </si>
+  <si>
+    <t>203</t>
+  </si>
+  <si>
+    <t>204</t>
+  </si>
+  <si>
+    <t>1607</t>
+  </si>
+  <si>
+    <t>1731</t>
+  </si>
+  <si>
+    <t>1751</t>
+  </si>
+  <si>
+    <t>1759</t>
+  </si>
+  <si>
+    <t>1733</t>
+  </si>
+  <si>
+    <t>1753</t>
+  </si>
+  <si>
+    <t>1801</t>
+  </si>
+  <si>
+    <t>CF98</t>
+  </si>
+  <si>
+    <t>CF99</t>
+  </si>
+  <si>
+    <t>19945</t>
+  </si>
+  <si>
+    <t>19927</t>
+  </si>
+  <si>
+    <t>19919</t>
+  </si>
+  <si>
+    <t>19868</t>
+  </si>
+  <si>
+    <t>098</t>
+  </si>
+  <si>
+    <t>8206</t>
+  </si>
+  <si>
+    <t>8207</t>
+  </si>
+  <si>
+    <t>belly wound</t>
+  </si>
+  <si>
+    <t>CK266</t>
+  </si>
+  <si>
+    <t>CK267</t>
+  </si>
+  <si>
+    <t>CK268</t>
+  </si>
+  <si>
+    <t>CK269</t>
+  </si>
+  <si>
+    <t>CK270</t>
+  </si>
+  <si>
+    <t>CK271</t>
+  </si>
+  <si>
+    <t>CK272</t>
+  </si>
+  <si>
+    <t>CK273</t>
+  </si>
+  <si>
+    <t>CK274</t>
+  </si>
+  <si>
+    <t>CK275</t>
+  </si>
+  <si>
+    <t>CK276</t>
+  </si>
+  <si>
+    <t>CK277</t>
+  </si>
+  <si>
+    <t>CK278</t>
+  </si>
+  <si>
+    <t>CK279</t>
+  </si>
+  <si>
+    <t>CK280</t>
+  </si>
+  <si>
+    <t>205</t>
+  </si>
+  <si>
+    <t>206</t>
+  </si>
+  <si>
+    <t>208</t>
+  </si>
+  <si>
+    <t>209</t>
+  </si>
+  <si>
+    <t>210</t>
+  </si>
+  <si>
+    <t>211</t>
+  </si>
+  <si>
+    <t>212</t>
+  </si>
+  <si>
+    <t>213</t>
+  </si>
+  <si>
+    <t>0701</t>
+  </si>
+  <si>
+    <t>0942</t>
+  </si>
+  <si>
+    <t>0730</t>
+  </si>
+  <si>
+    <t>0832</t>
+  </si>
+  <si>
+    <t>0911</t>
+  </si>
+  <si>
+    <t>1046</t>
+  </si>
+  <si>
+    <t>CF101</t>
+  </si>
+  <si>
+    <t>08014</t>
+  </si>
+  <si>
+    <t>19898</t>
+  </si>
+  <si>
+    <t>19957</t>
+  </si>
+  <si>
+    <t>19947</t>
+  </si>
+  <si>
+    <t>19886</t>
+  </si>
+  <si>
+    <t>19882</t>
+  </si>
+  <si>
+    <t>19870</t>
+  </si>
+  <si>
+    <t>19931</t>
+  </si>
+  <si>
+    <t>19943</t>
+  </si>
+  <si>
+    <t>19952</t>
+  </si>
+  <si>
+    <t>19956</t>
+  </si>
+  <si>
+    <t>19902</t>
+  </si>
+  <si>
+    <t>19871</t>
+  </si>
+  <si>
+    <t>19903</t>
+  </si>
+  <si>
+    <t>19891</t>
+  </si>
+  <si>
+    <t>19867</t>
+  </si>
+  <si>
+    <t>8208</t>
+  </si>
+  <si>
+    <t>10.1</t>
+  </si>
+  <si>
+    <t>CK281</t>
+  </si>
+  <si>
+    <t>CK282</t>
+  </si>
+  <si>
+    <t>CK283</t>
+  </si>
+  <si>
+    <t>CK284</t>
+  </si>
+  <si>
+    <t>CK285</t>
+  </si>
+  <si>
+    <t>CK286</t>
+  </si>
+  <si>
+    <t>CK287</t>
+  </si>
+  <si>
+    <t>CK288</t>
+  </si>
+  <si>
+    <t>CK289</t>
+  </si>
+  <si>
+    <t>CK290</t>
+  </si>
+  <si>
+    <t>CK291</t>
+  </si>
+  <si>
+    <t>CK292</t>
+  </si>
+  <si>
+    <t>CK293</t>
+  </si>
+  <si>
+    <t>214</t>
+  </si>
+  <si>
+    <t>215</t>
+  </si>
+  <si>
+    <t>219</t>
+  </si>
+  <si>
+    <t>1102</t>
+  </si>
+  <si>
+    <t>1112</t>
+  </si>
+  <si>
+    <t>1122</t>
+  </si>
+  <si>
+    <t>1128</t>
+  </si>
+  <si>
+    <t>1333</t>
+  </si>
+  <si>
+    <t>1104</t>
+  </si>
+  <si>
+    <t>1109</t>
+  </si>
+  <si>
+    <t>1335</t>
+  </si>
+  <si>
+    <t>1339</t>
+  </si>
+  <si>
+    <t>1343</t>
+  </si>
+  <si>
+    <t>1346</t>
+  </si>
+  <si>
+    <t>19954</t>
+  </si>
+  <si>
+    <t>19890</t>
+  </si>
+  <si>
+    <t>19941</t>
+  </si>
+  <si>
+    <t>19930</t>
+  </si>
+  <si>
+    <t>19918</t>
+  </si>
+  <si>
+    <t>19940</t>
+  </si>
+  <si>
+    <t>19959</t>
+  </si>
+  <si>
+    <t>19923</t>
+  </si>
+  <si>
+    <t>19925</t>
+  </si>
+  <si>
+    <t>08005</t>
+  </si>
+  <si>
+    <t>19900</t>
+  </si>
+  <si>
+    <t>19906</t>
+  </si>
+  <si>
+    <t>19929</t>
+  </si>
+  <si>
+    <t>dead</t>
+  </si>
+  <si>
+    <t>face wound</t>
   </si>
 </sst>
 </file>
@@ -4405,8 +5137,98 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="167">
+  <cellStyleXfs count="257">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -4594,7 +5416,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="167">
+  <cellStyles count="257">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -4678,6 +5500,51 @@
     <cellStyle name="Followed Hyperlink" xfId="162" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="164" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="166" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="168" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="170" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="172" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="174" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="176" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="178" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="180" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="182" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="184" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="186" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="188" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="190" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="192" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="194" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="196" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="198" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="200" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="202" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="204" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="206" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="208" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="210" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="212" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="214" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="216" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="218" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="220" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="222" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="224" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="226" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="228" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="230" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="232" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="234" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="236" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="238" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="240" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="242" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="244" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="246" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="248" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="250" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="252" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="254" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="256" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -4761,6 +5628,51 @@
     <cellStyle name="Hyperlink" xfId="161" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="163" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="165" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="167" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="169" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="171" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="173" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="175" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="177" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="179" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="181" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="183" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="185" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="187" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="189" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="191" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="193" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="195" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="197" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="199" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="201" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="203" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="205" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="207" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="209" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="211" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="213" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="215" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="217" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="219" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="221" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="223" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="225" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="227" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="229" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="231" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="233" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="235" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="237" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="239" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="241" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="243" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="245" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="247" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="249" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="251" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="253" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="255" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -5031,7 +5943,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -5039,11 +5951,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD231"/>
+  <dimension ref="A1:AD294"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A202" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AD231" sqref="AD231"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A266" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AD295" sqref="AD295"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -20039,7 +20951,7 @@
         <v>797</v>
       </c>
       <c r="B166" t="str">
-        <f t="shared" ref="B166:B231" si="3">"CT2019"&amp;"_"&amp;C166</f>
+        <f t="shared" ref="B166:B233" si="3">"CT2019"&amp;"_"&amp;C166</f>
         <v>CT2019_120</v>
       </c>
       <c r="C166" s="1" t="s">
@@ -25386,7 +26298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:29">
+    <row r="225" spans="1:30">
       <c r="A225" t="s">
         <v>1361</v>
       </c>
@@ -25476,7 +26388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:29">
+    <row r="226" spans="1:30">
       <c r="A226" t="s">
         <v>1362</v>
       </c>
@@ -25566,7 +26478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:29">
+    <row r="227" spans="1:30">
       <c r="A227" t="s">
         <v>1363</v>
       </c>
@@ -25656,7 +26568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:29">
+    <row r="228" spans="1:30">
       <c r="A228" t="s">
         <v>1364</v>
       </c>
@@ -25746,7 +26658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:29">
+    <row r="229" spans="1:30">
       <c r="A229" t="s">
         <v>1365</v>
       </c>
@@ -25836,7 +26748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:29">
+    <row r="230" spans="1:30">
       <c r="A230" t="s">
         <v>1366</v>
       </c>
@@ -25926,7 +26838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:29">
+    <row r="231" spans="1:30">
       <c r="A231" t="s">
         <v>1419</v>
       </c>
@@ -26014,6 +26926,5727 @@
       </c>
       <c r="AC231" s="9">
         <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:30">
+      <c r="A232" t="s">
+        <v>1428</v>
+      </c>
+      <c r="B232" t="str">
+        <f t="shared" si="3"/>
+        <v>CT2019_187</v>
+      </c>
+      <c r="C232" s="1" t="s">
+        <v>1427</v>
+      </c>
+      <c r="D232" s="1" t="s">
+        <v>1055</v>
+      </c>
+      <c r="E232" s="1" t="s">
+        <v>1450</v>
+      </c>
+      <c r="F232">
+        <v>28</v>
+      </c>
+      <c r="G232" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H232">
+        <v>60</v>
+      </c>
+      <c r="I232">
+        <v>37</v>
+      </c>
+      <c r="J232" t="s">
+        <v>77</v>
+      </c>
+      <c r="K232" t="s">
+        <v>132</v>
+      </c>
+      <c r="L232">
+        <v>842</v>
+      </c>
+      <c r="M232" t="s">
+        <v>96</v>
+      </c>
+      <c r="N232" s="1" t="s">
+        <v>1456</v>
+      </c>
+      <c r="O232" s="1" t="s">
+        <v>1309</v>
+      </c>
+      <c r="P232" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q232" s="1" t="s">
+        <v>1461</v>
+      </c>
+      <c r="R232" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="S232" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="T232" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="U232" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="V232" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="W232" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="X232" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="Y232" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z232" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA232" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB232" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC232" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:30">
+      <c r="A233" t="s">
+        <v>1429</v>
+      </c>
+      <c r="B233" t="str">
+        <f t="shared" si="3"/>
+        <v>CT2019_187</v>
+      </c>
+      <c r="C233" s="1" t="s">
+        <v>1427</v>
+      </c>
+      <c r="D233" s="1" t="s">
+        <v>872</v>
+      </c>
+      <c r="E233" s="1" t="s">
+        <v>1451</v>
+      </c>
+      <c r="F233">
+        <v>10</v>
+      </c>
+      <c r="G233" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H233">
+        <v>66</v>
+      </c>
+      <c r="I233">
+        <v>36</v>
+      </c>
+      <c r="J233" t="s">
+        <v>77</v>
+      </c>
+      <c r="K233" t="s">
+        <v>132</v>
+      </c>
+      <c r="L233">
+        <v>843</v>
+      </c>
+      <c r="M233" t="s">
+        <v>96</v>
+      </c>
+      <c r="N233" s="1" t="s">
+        <v>1456</v>
+      </c>
+      <c r="O233" s="1" t="s">
+        <v>1310</v>
+      </c>
+      <c r="P233" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q233" s="1" t="s">
+        <v>1462</v>
+      </c>
+      <c r="R233" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="S233" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="T233" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="U233" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="V233" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="W233" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="X233" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="Y233" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z233" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA233" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB233" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC233" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD233" t="s">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="234" spans="1:30">
+      <c r="A234" t="s">
+        <v>1430</v>
+      </c>
+      <c r="B234" t="str">
+        <f t="shared" ref="B234:B294" si="4">"CT2019"&amp;"_"&amp;C234</f>
+        <v>CT2019_187</v>
+      </c>
+      <c r="C234" s="1" t="s">
+        <v>1427</v>
+      </c>
+      <c r="D234" s="1" t="s">
+        <v>881</v>
+      </c>
+      <c r="E234" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="F234">
+        <v>28</v>
+      </c>
+      <c r="G234" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H234">
+        <v>55</v>
+      </c>
+      <c r="I234">
+        <v>29</v>
+      </c>
+      <c r="J234" t="s">
+        <v>77</v>
+      </c>
+      <c r="K234" t="s">
+        <v>132</v>
+      </c>
+      <c r="L234">
+        <v>844</v>
+      </c>
+      <c r="M234" t="s">
+        <v>96</v>
+      </c>
+      <c r="N234" s="1" t="s">
+        <v>1456</v>
+      </c>
+      <c r="O234" s="1" t="s">
+        <v>1311</v>
+      </c>
+      <c r="P234" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q234" s="1" t="s">
+        <v>1463</v>
+      </c>
+      <c r="R234" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="S234" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="T234" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="U234" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="V234" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="W234" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="X234" s="1" t="s">
+        <v>1480</v>
+      </c>
+      <c r="Y234" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z234" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA234" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB234" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC234" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:30">
+      <c r="A235" t="s">
+        <v>1431</v>
+      </c>
+      <c r="B235" t="str">
+        <f t="shared" si="4"/>
+        <v>CT2019_187</v>
+      </c>
+      <c r="C235" s="1" t="s">
+        <v>1427</v>
+      </c>
+      <c r="D235" s="1" t="s">
+        <v>1445</v>
+      </c>
+      <c r="E235" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="F235">
+        <v>16</v>
+      </c>
+      <c r="G235" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H235">
+        <v>62</v>
+      </c>
+      <c r="I235">
+        <v>33</v>
+      </c>
+      <c r="J235" t="s">
+        <v>515</v>
+      </c>
+      <c r="K235" t="s">
+        <v>132</v>
+      </c>
+      <c r="L235">
+        <v>845</v>
+      </c>
+      <c r="M235" t="s">
+        <v>96</v>
+      </c>
+      <c r="N235" s="1" t="s">
+        <v>1456</v>
+      </c>
+      <c r="O235" s="1" t="s">
+        <v>1233</v>
+      </c>
+      <c r="P235" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q235" s="1" t="s">
+        <v>1464</v>
+      </c>
+      <c r="R235" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="S235" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="T235" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="U235" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="V235" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="W235" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="X235" s="1" t="s">
+        <v>847</v>
+      </c>
+      <c r="Y235" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z235" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA235" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB235" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC235" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:30">
+      <c r="A236" t="s">
+        <v>1432</v>
+      </c>
+      <c r="B236" t="str">
+        <f t="shared" si="4"/>
+        <v>CT2019_187</v>
+      </c>
+      <c r="C236" s="1" t="s">
+        <v>1427</v>
+      </c>
+      <c r="D236" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E236" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="F236">
+        <v>28</v>
+      </c>
+      <c r="G236" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H236">
+        <v>57</v>
+      </c>
+      <c r="I236">
+        <v>31</v>
+      </c>
+      <c r="J236" t="s">
+        <v>399</v>
+      </c>
+      <c r="K236" t="s">
+        <v>78</v>
+      </c>
+      <c r="L236">
+        <v>846</v>
+      </c>
+      <c r="M236" t="s">
+        <v>96</v>
+      </c>
+      <c r="N236" s="1" t="s">
+        <v>1456</v>
+      </c>
+      <c r="O236" s="1" t="s">
+        <v>1234</v>
+      </c>
+      <c r="P236" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q236" s="1" t="s">
+        <v>1465</v>
+      </c>
+      <c r="R236" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="S236" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="T236" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="U236" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="V236" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="W236" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="X236" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="Y236" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z236" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA236" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB236" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC236" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD236" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="237" spans="1:30">
+      <c r="A237" t="s">
+        <v>1433</v>
+      </c>
+      <c r="B237" t="str">
+        <f t="shared" si="4"/>
+        <v>CT2019_187</v>
+      </c>
+      <c r="C237" s="1" t="s">
+        <v>1427</v>
+      </c>
+      <c r="D237" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="E237" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F237">
+        <v>10</v>
+      </c>
+      <c r="G237" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H237">
+        <v>61</v>
+      </c>
+      <c r="I237">
+        <v>33</v>
+      </c>
+      <c r="J237" t="s">
+        <v>11</v>
+      </c>
+      <c r="K237" t="s">
+        <v>132</v>
+      </c>
+      <c r="L237">
+        <v>847</v>
+      </c>
+      <c r="M237" t="s">
+        <v>96</v>
+      </c>
+      <c r="N237" s="1" t="s">
+        <v>1456</v>
+      </c>
+      <c r="O237" s="1" t="s">
+        <v>1235</v>
+      </c>
+      <c r="P237" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q237" s="1" t="s">
+        <v>1466</v>
+      </c>
+      <c r="R237" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="S237" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="T237" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="U237" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="V237" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="W237" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="X237" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="Y237" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z237" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA237" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB237" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC237" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:30">
+      <c r="A238" t="s">
+        <v>1434</v>
+      </c>
+      <c r="B238" t="str">
+        <f t="shared" si="4"/>
+        <v>CT2019_187</v>
+      </c>
+      <c r="C238" s="1" t="s">
+        <v>1427</v>
+      </c>
+      <c r="D238" s="1" t="s">
+        <v>1446</v>
+      </c>
+      <c r="E238" s="1" t="s">
+        <v>1452</v>
+      </c>
+      <c r="F238">
+        <v>28</v>
+      </c>
+      <c r="G238" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H238">
+        <v>62</v>
+      </c>
+      <c r="I238">
+        <v>35</v>
+      </c>
+      <c r="J238" t="s">
+        <v>77</v>
+      </c>
+      <c r="K238" t="s">
+        <v>78</v>
+      </c>
+      <c r="L238">
+        <v>848</v>
+      </c>
+      <c r="M238" t="s">
+        <v>96</v>
+      </c>
+      <c r="N238" s="1" t="s">
+        <v>1456</v>
+      </c>
+      <c r="O238" s="1" t="s">
+        <v>1236</v>
+      </c>
+      <c r="P238" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q238" s="1" t="s">
+        <v>1467</v>
+      </c>
+      <c r="R238" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="S238" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="T238" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="U238" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="V238" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="W238" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="X238" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="Y238" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z238" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA238" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB238" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC238" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:30">
+      <c r="A239" t="s">
+        <v>1435</v>
+      </c>
+      <c r="B239" t="str">
+        <f t="shared" si="4"/>
+        <v>CT2019_187</v>
+      </c>
+      <c r="C239" s="1" t="s">
+        <v>1427</v>
+      </c>
+      <c r="D239" s="1" t="s">
+        <v>1447</v>
+      </c>
+      <c r="E239" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="F239">
+        <v>22</v>
+      </c>
+      <c r="G239" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H239">
+        <v>60</v>
+      </c>
+      <c r="I239">
+        <v>32</v>
+      </c>
+      <c r="J239" t="s">
+        <v>77</v>
+      </c>
+      <c r="K239" t="s">
+        <v>132</v>
+      </c>
+      <c r="L239">
+        <v>849</v>
+      </c>
+      <c r="M239" t="s">
+        <v>96</v>
+      </c>
+      <c r="N239" s="1" t="s">
+        <v>1456</v>
+      </c>
+      <c r="O239" s="1" t="s">
+        <v>1237</v>
+      </c>
+      <c r="P239" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q239" s="1" t="s">
+        <v>1468</v>
+      </c>
+      <c r="R239" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="S239" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="T239" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="U239" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="V239" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="W239" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="X239" s="1" t="s">
+        <v>1481</v>
+      </c>
+      <c r="Y239" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z239" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA239" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB239" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC239" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240" spans="1:30">
+      <c r="A240" t="s">
+        <v>1436</v>
+      </c>
+      <c r="B240" t="str">
+        <f t="shared" si="4"/>
+        <v>CT2019_187</v>
+      </c>
+      <c r="C240" s="1" t="s">
+        <v>1427</v>
+      </c>
+      <c r="D240" s="1" t="s">
+        <v>1283</v>
+      </c>
+      <c r="E240" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="F240">
+        <v>28</v>
+      </c>
+      <c r="G240" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H240">
+        <v>60</v>
+      </c>
+      <c r="I240">
+        <v>30</v>
+      </c>
+      <c r="J240" t="s">
+        <v>77</v>
+      </c>
+      <c r="K240" t="s">
+        <v>132</v>
+      </c>
+      <c r="L240">
+        <v>850</v>
+      </c>
+      <c r="M240" t="s">
+        <v>96</v>
+      </c>
+      <c r="N240" s="1" t="s">
+        <v>1456</v>
+      </c>
+      <c r="O240" s="1" t="s">
+        <v>1307</v>
+      </c>
+      <c r="P240" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q240" s="1" t="s">
+        <v>1469</v>
+      </c>
+      <c r="R240" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="S240" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="T240" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="U240" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="V240" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="W240" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="X240" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="Y240" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z240" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA240" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB240" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC240" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:30">
+      <c r="A241" t="s">
+        <v>1437</v>
+      </c>
+      <c r="B241" t="str">
+        <f t="shared" si="4"/>
+        <v>CT2019_188</v>
+      </c>
+      <c r="C241" s="1" t="s">
+        <v>1443</v>
+      </c>
+      <c r="D241" s="1" t="s">
+        <v>1448</v>
+      </c>
+      <c r="E241" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="F241">
+        <v>28</v>
+      </c>
+      <c r="G241" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H241">
+        <v>54</v>
+      </c>
+      <c r="I241">
+        <v>29</v>
+      </c>
+      <c r="J241" t="s">
+        <v>77</v>
+      </c>
+      <c r="K241" t="s">
+        <v>132</v>
+      </c>
+      <c r="L241">
+        <v>851</v>
+      </c>
+      <c r="M241" t="s">
+        <v>96</v>
+      </c>
+      <c r="N241" s="1" t="s">
+        <v>1456</v>
+      </c>
+      <c r="O241" s="1" t="s">
+        <v>1308</v>
+      </c>
+      <c r="P241" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q241" s="1" t="s">
+        <v>1470</v>
+      </c>
+      <c r="R241" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="S241" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="T241" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="U241" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="V241" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="W241" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="X241" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="Y241" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z241" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA241" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB241" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC241" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:30">
+      <c r="A242" t="s">
+        <v>1438</v>
+      </c>
+      <c r="B242" t="str">
+        <f t="shared" si="4"/>
+        <v>CT2019_188</v>
+      </c>
+      <c r="C242" s="1" t="s">
+        <v>1443</v>
+      </c>
+      <c r="D242" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="E242" s="1" t="s">
+        <v>1449</v>
+      </c>
+      <c r="F242">
+        <v>24</v>
+      </c>
+      <c r="G242" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H242">
+        <v>64</v>
+      </c>
+      <c r="I242">
+        <v>35</v>
+      </c>
+      <c r="J242" t="s">
+        <v>77</v>
+      </c>
+      <c r="K242" t="s">
+        <v>78</v>
+      </c>
+      <c r="L242">
+        <v>852</v>
+      </c>
+      <c r="M242" t="s">
+        <v>96</v>
+      </c>
+      <c r="N242" s="1" t="s">
+        <v>1460</v>
+      </c>
+      <c r="O242" s="1" t="s">
+        <v>1309</v>
+      </c>
+      <c r="P242" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q242" s="1" t="s">
+        <v>1471</v>
+      </c>
+      <c r="R242" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="S242" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="T242" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="U242" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="V242" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="W242" s="1" t="s">
+        <v>915</v>
+      </c>
+      <c r="X242" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="Y242" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z242" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA242" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB242" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC242" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:30">
+      <c r="A243" t="s">
+        <v>1439</v>
+      </c>
+      <c r="B243" t="str">
+        <f t="shared" si="4"/>
+        <v>CT2019_188</v>
+      </c>
+      <c r="C243" s="1" t="s">
+        <v>1443</v>
+      </c>
+      <c r="D243" s="1" t="s">
+        <v>886</v>
+      </c>
+      <c r="E243" s="1" t="s">
+        <v>1453</v>
+      </c>
+      <c r="F243">
+        <v>28</v>
+      </c>
+      <c r="G243" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H243">
+        <v>72</v>
+      </c>
+      <c r="I243">
+        <v>47</v>
+      </c>
+      <c r="J243" t="s">
+        <v>77</v>
+      </c>
+      <c r="K243" t="s">
+        <v>132</v>
+      </c>
+      <c r="L243">
+        <v>853</v>
+      </c>
+      <c r="M243" t="s">
+        <v>1454</v>
+      </c>
+      <c r="N243" s="1" t="s">
+        <v>1460</v>
+      </c>
+      <c r="O243" s="1" t="s">
+        <v>1310</v>
+      </c>
+      <c r="P243" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q243" s="1" t="s">
+        <v>1472</v>
+      </c>
+      <c r="R243" s="1" t="s">
+        <v>1476</v>
+      </c>
+      <c r="S243" s="1" t="s">
+        <v>1478</v>
+      </c>
+      <c r="T243" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="U243" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="V243" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="W243" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="X243" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="Y243" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z243" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA243" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB243" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC243" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:30">
+      <c r="A244" t="s">
+        <v>1440</v>
+      </c>
+      <c r="B244" t="str">
+        <f t="shared" si="4"/>
+        <v>CT2019_188</v>
+      </c>
+      <c r="C244" s="1" t="s">
+        <v>1443</v>
+      </c>
+      <c r="D244" s="1" t="s">
+        <v>936</v>
+      </c>
+      <c r="E244" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F244">
+        <v>24</v>
+      </c>
+      <c r="G244" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H244">
+        <v>63</v>
+      </c>
+      <c r="I244">
+        <v>33</v>
+      </c>
+      <c r="J244" t="s">
+        <v>77</v>
+      </c>
+      <c r="K244" t="s">
+        <v>132</v>
+      </c>
+      <c r="L244">
+        <v>854</v>
+      </c>
+      <c r="M244" t="s">
+        <v>96</v>
+      </c>
+      <c r="N244" s="1" t="s">
+        <v>1460</v>
+      </c>
+      <c r="O244" s="1" t="s">
+        <v>1311</v>
+      </c>
+      <c r="P244" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q244" s="1" t="s">
+        <v>1473</v>
+      </c>
+      <c r="R244" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="S244" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="T244" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="U244" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="V244" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="W244" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="X244" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="Y244" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z244" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA244" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB244" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC244" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:30">
+      <c r="A245" t="s">
+        <v>1441</v>
+      </c>
+      <c r="B245" t="str">
+        <f t="shared" si="4"/>
+        <v>CT2019_189</v>
+      </c>
+      <c r="C245" s="1" t="s">
+        <v>1444</v>
+      </c>
+      <c r="D245" s="1" t="s">
+        <v>1386</v>
+      </c>
+      <c r="E245" s="1" t="s">
+        <v>1285</v>
+      </c>
+      <c r="F245">
+        <v>24</v>
+      </c>
+      <c r="G245" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H245">
+        <v>73</v>
+      </c>
+      <c r="I245">
+        <v>45</v>
+      </c>
+      <c r="J245" t="s">
+        <v>77</v>
+      </c>
+      <c r="K245" t="s">
+        <v>78</v>
+      </c>
+      <c r="L245">
+        <v>855</v>
+      </c>
+      <c r="M245" t="s">
+        <v>1455</v>
+      </c>
+      <c r="N245" s="1" t="s">
+        <v>1460</v>
+      </c>
+      <c r="O245" s="1" t="s">
+        <v>1233</v>
+      </c>
+      <c r="P245" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q245" s="1" t="s">
+        <v>1474</v>
+      </c>
+      <c r="R245" s="1" t="s">
+        <v>1477</v>
+      </c>
+      <c r="S245" s="1" t="s">
+        <v>1479</v>
+      </c>
+      <c r="T245" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="U245" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="V245" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="W245" s="1" t="s">
+        <v>915</v>
+      </c>
+      <c r="X245" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="Y245" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z245" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA245" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB245" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC245" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:30">
+      <c r="A246" t="s">
+        <v>1442</v>
+      </c>
+      <c r="B246" t="str">
+        <f t="shared" si="4"/>
+        <v>CT2019_189</v>
+      </c>
+      <c r="C246" s="1" t="s">
+        <v>1444</v>
+      </c>
+      <c r="D246" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="E246" s="1" t="s">
+        <v>1065</v>
+      </c>
+      <c r="F246">
+        <v>24</v>
+      </c>
+      <c r="G246" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H246">
+        <v>65</v>
+      </c>
+      <c r="I246">
+        <v>37</v>
+      </c>
+      <c r="J246" t="s">
+        <v>77</v>
+      </c>
+      <c r="K246" t="s">
+        <v>78</v>
+      </c>
+      <c r="L246">
+        <v>856</v>
+      </c>
+      <c r="M246" t="s">
+        <v>96</v>
+      </c>
+      <c r="N246" s="1" t="s">
+        <v>1460</v>
+      </c>
+      <c r="O246" s="1" t="s">
+        <v>1234</v>
+      </c>
+      <c r="P246" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q246" s="1" t="s">
+        <v>1475</v>
+      </c>
+      <c r="R246" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="S246" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="T246" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="U246" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="V246" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="W246" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="X246" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="Y246" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z246" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA246" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB246" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC246" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:30">
+      <c r="A247" t="s">
+        <v>1482</v>
+      </c>
+      <c r="B247" t="str">
+        <f t="shared" si="4"/>
+        <v>CT2019_191</v>
+      </c>
+      <c r="C247" s="1" t="s">
+        <v>1497</v>
+      </c>
+      <c r="D247" s="1" t="s">
+        <v>1069</v>
+      </c>
+      <c r="E247" s="1" t="s">
+        <v>1513</v>
+      </c>
+      <c r="F247">
+        <v>30</v>
+      </c>
+      <c r="G247" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H247">
+        <v>63</v>
+      </c>
+      <c r="I247">
+        <v>36</v>
+      </c>
+      <c r="J247" t="s">
+        <v>77</v>
+      </c>
+      <c r="K247" t="s">
+        <v>78</v>
+      </c>
+      <c r="L247">
+        <v>857</v>
+      </c>
+      <c r="M247" t="s">
+        <v>96</v>
+      </c>
+      <c r="N247" s="1" t="s">
+        <v>1460</v>
+      </c>
+      <c r="O247" s="1" t="s">
+        <v>1235</v>
+      </c>
+      <c r="P247" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q247" s="1" t="s">
+        <v>1528</v>
+      </c>
+      <c r="R247" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="S247" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="T247" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="U247" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="V247" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="W247" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="X247" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="Y247" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z247" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA247" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB247" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC247" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:30">
+      <c r="A248" t="s">
+        <v>1483</v>
+      </c>
+      <c r="B248" t="str">
+        <f t="shared" si="4"/>
+        <v>CT2019_192</v>
+      </c>
+      <c r="C248" s="1" t="s">
+        <v>1498</v>
+      </c>
+      <c r="D248" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="E248" s="1" t="s">
+        <v>932</v>
+      </c>
+      <c r="F248">
+        <v>32</v>
+      </c>
+      <c r="G248" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H248">
+        <v>80</v>
+      </c>
+      <c r="I248">
+        <v>47</v>
+      </c>
+      <c r="J248" t="s">
+        <v>515</v>
+      </c>
+      <c r="K248" t="s">
+        <v>78</v>
+      </c>
+      <c r="L248">
+        <v>858</v>
+      </c>
+      <c r="M248" t="s">
+        <v>1521</v>
+      </c>
+      <c r="N248" s="1" t="s">
+        <v>1460</v>
+      </c>
+      <c r="O248" s="1" t="s">
+        <v>1236</v>
+      </c>
+      <c r="P248" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q248" s="1" t="s">
+        <v>1529</v>
+      </c>
+      <c r="R248" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="S248" s="1" t="s">
+        <v>1548</v>
+      </c>
+      <c r="T248" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="U248" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="V248" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="W248" s="1" t="s">
+        <v>674</v>
+      </c>
+      <c r="X248" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="Y248" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z248" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA248" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB248" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC248" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD248" t="s">
+        <v>1556</v>
+      </c>
+    </row>
+    <row r="249" spans="1:30">
+      <c r="A249" t="s">
+        <v>1484</v>
+      </c>
+      <c r="B249" t="str">
+        <f t="shared" si="4"/>
+        <v>CT2019_192</v>
+      </c>
+      <c r="C249" s="1" t="s">
+        <v>1498</v>
+      </c>
+      <c r="D249" s="1" t="s">
+        <v>932</v>
+      </c>
+      <c r="E249" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="F249">
+        <v>12</v>
+      </c>
+      <c r="G249" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H249">
+        <v>74</v>
+      </c>
+      <c r="I249">
+        <v>42</v>
+      </c>
+      <c r="J249" t="s">
+        <v>77</v>
+      </c>
+      <c r="K249" t="s">
+        <v>78</v>
+      </c>
+      <c r="L249">
+        <v>859</v>
+      </c>
+      <c r="M249" t="s">
+        <v>1522</v>
+      </c>
+      <c r="N249" s="1" t="s">
+        <v>1460</v>
+      </c>
+      <c r="O249" s="1" t="s">
+        <v>1237</v>
+      </c>
+      <c r="P249" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q249" s="1" t="s">
+        <v>1530</v>
+      </c>
+      <c r="R249" s="1" t="s">
+        <v>1543</v>
+      </c>
+      <c r="S249" s="1" t="s">
+        <v>1549</v>
+      </c>
+      <c r="T249" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="U249" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="V249" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="W249" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="X249" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="Y249" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z249" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA249" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB249" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC249" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:30">
+      <c r="A250" t="s">
+        <v>1485</v>
+      </c>
+      <c r="B250" t="str">
+        <f t="shared" si="4"/>
+        <v>CT2019_193</v>
+      </c>
+      <c r="C250" s="1" t="s">
+        <v>1499</v>
+      </c>
+      <c r="D250" s="1" t="s">
+        <v>1504</v>
+      </c>
+      <c r="E250" s="1" t="s">
+        <v>1514</v>
+      </c>
+      <c r="F250">
+        <v>26</v>
+      </c>
+      <c r="G250" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H250">
+        <v>63</v>
+      </c>
+      <c r="I250">
+        <v>37</v>
+      </c>
+      <c r="J250" t="s">
+        <v>77</v>
+      </c>
+      <c r="K250" t="s">
+        <v>78</v>
+      </c>
+      <c r="L250">
+        <v>860</v>
+      </c>
+      <c r="M250" t="s">
+        <v>96</v>
+      </c>
+      <c r="N250" s="1" t="s">
+        <v>1460</v>
+      </c>
+      <c r="O250" s="1" t="s">
+        <v>1307</v>
+      </c>
+      <c r="P250" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q250" s="1" t="s">
+        <v>1531</v>
+      </c>
+      <c r="R250" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="S250" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="T250" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="U250" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="V250" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="W250" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="X250" s="1" t="s">
+        <v>778</v>
+      </c>
+      <c r="Y250" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z250" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA250" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB250" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC250" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:30">
+      <c r="A251" t="s">
+        <v>1486</v>
+      </c>
+      <c r="B251" t="str">
+        <f t="shared" si="4"/>
+        <v>CT2019_193</v>
+      </c>
+      <c r="C251" s="1" t="s">
+        <v>1499</v>
+      </c>
+      <c r="D251" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="E251" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="F251">
+        <v>26</v>
+      </c>
+      <c r="G251" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H251">
+        <v>73</v>
+      </c>
+      <c r="I251">
+        <v>43</v>
+      </c>
+      <c r="J251" t="s">
+        <v>77</v>
+      </c>
+      <c r="K251" t="s">
+        <v>78</v>
+      </c>
+      <c r="L251">
+        <v>861</v>
+      </c>
+      <c r="M251" t="s">
+        <v>1523</v>
+      </c>
+      <c r="N251" s="1" t="s">
+        <v>1460</v>
+      </c>
+      <c r="O251" s="1" t="s">
+        <v>1308</v>
+      </c>
+      <c r="P251" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q251" s="1" t="s">
+        <v>1532</v>
+      </c>
+      <c r="R251" s="1" t="s">
+        <v>1544</v>
+      </c>
+      <c r="S251" s="1" t="s">
+        <v>1550</v>
+      </c>
+      <c r="T251" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="U251" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="V251" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="W251" s="1" t="s">
+        <v>1200</v>
+      </c>
+      <c r="X251" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="Y251" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z251" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA251" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB251" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC251" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:30">
+      <c r="A252" t="s">
+        <v>1487</v>
+      </c>
+      <c r="B252" t="str">
+        <f t="shared" si="4"/>
+        <v>CT2019_194</v>
+      </c>
+      <c r="C252" s="1" t="s">
+        <v>1500</v>
+      </c>
+      <c r="D252" s="1" t="s">
+        <v>1505</v>
+      </c>
+      <c r="E252" s="1" t="s">
+        <v>1112</v>
+      </c>
+      <c r="F252">
+        <v>30</v>
+      </c>
+      <c r="G252" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H252">
+        <v>62</v>
+      </c>
+      <c r="I252">
+        <v>33</v>
+      </c>
+      <c r="J252" t="s">
+        <v>77</v>
+      </c>
+      <c r="K252" t="s">
+        <v>78</v>
+      </c>
+      <c r="L252">
+        <v>862</v>
+      </c>
+      <c r="M252" t="s">
+        <v>96</v>
+      </c>
+      <c r="N252" s="1" t="s">
+        <v>1457</v>
+      </c>
+      <c r="O252" s="1" t="s">
+        <v>1309</v>
+      </c>
+      <c r="P252" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q252" s="1" t="s">
+        <v>1533</v>
+      </c>
+      <c r="R252" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="S252" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="T252" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="U252" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="V252" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="W252" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="X252" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="Y252" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z252" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA252" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB252" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC252" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:30">
+      <c r="A253" t="s">
+        <v>1488</v>
+      </c>
+      <c r="B253" t="str">
+        <f t="shared" si="4"/>
+        <v>CT2019_194</v>
+      </c>
+      <c r="C253" s="1" t="s">
+        <v>1500</v>
+      </c>
+      <c r="D253" s="1" t="s">
+        <v>1506</v>
+      </c>
+      <c r="E253" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F253">
+        <v>26</v>
+      </c>
+      <c r="G253" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H253">
+        <v>81</v>
+      </c>
+      <c r="I253">
+        <v>44</v>
+      </c>
+      <c r="J253" t="s">
+        <v>77</v>
+      </c>
+      <c r="K253" t="s">
+        <v>78</v>
+      </c>
+      <c r="L253">
+        <v>863</v>
+      </c>
+      <c r="M253" t="s">
+        <v>1524</v>
+      </c>
+      <c r="N253" s="1" t="s">
+        <v>1457</v>
+      </c>
+      <c r="O253" s="1" t="s">
+        <v>1310</v>
+      </c>
+      <c r="P253" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q253" s="1" t="s">
+        <v>1534</v>
+      </c>
+      <c r="R253" s="1" t="s">
+        <v>1545</v>
+      </c>
+      <c r="S253" s="1" t="s">
+        <v>1551</v>
+      </c>
+      <c r="T253" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="U253" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="V253" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="W253" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="X253" s="1" t="s">
+        <v>847</v>
+      </c>
+      <c r="Y253" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z253" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA253" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB253" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC253" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:30">
+      <c r="A254" t="s">
+        <v>1489</v>
+      </c>
+      <c r="B254" t="str">
+        <f t="shared" si="4"/>
+        <v>CT2019_194</v>
+      </c>
+      <c r="C254" s="1" t="s">
+        <v>1500</v>
+      </c>
+      <c r="D254" s="1" t="s">
+        <v>1507</v>
+      </c>
+      <c r="E254" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="F254">
+        <v>30</v>
+      </c>
+      <c r="G254" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H254">
+        <v>58</v>
+      </c>
+      <c r="I254">
+        <v>32</v>
+      </c>
+      <c r="J254" t="s">
+        <v>77</v>
+      </c>
+      <c r="K254" t="s">
+        <v>78</v>
+      </c>
+      <c r="L254">
+        <v>864</v>
+      </c>
+      <c r="M254" t="s">
+        <v>96</v>
+      </c>
+      <c r="N254" s="1" t="s">
+        <v>1457</v>
+      </c>
+      <c r="O254" s="1" t="s">
+        <v>1311</v>
+      </c>
+      <c r="P254" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q254" s="1" t="s">
+        <v>1535</v>
+      </c>
+      <c r="R254" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="S254" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="T254" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="U254" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="V254" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="W254" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="X254" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="Y254" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z254" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA254" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB254" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC254" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD254" t="s">
+        <v>1555</v>
+      </c>
+    </row>
+    <row r="255" spans="1:30">
+      <c r="A255" t="s">
+        <v>1490</v>
+      </c>
+      <c r="B255" t="str">
+        <f t="shared" si="4"/>
+        <v>CT2019_194</v>
+      </c>
+      <c r="C255" s="1" t="s">
+        <v>1500</v>
+      </c>
+      <c r="D255" s="1" t="s">
+        <v>1508</v>
+      </c>
+      <c r="E255" s="1" t="s">
+        <v>1515</v>
+      </c>
+      <c r="F255">
+        <v>26</v>
+      </c>
+      <c r="G255" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H255">
+        <v>84</v>
+      </c>
+      <c r="I255">
+        <v>47</v>
+      </c>
+      <c r="J255" t="s">
+        <v>77</v>
+      </c>
+      <c r="K255" t="s">
+        <v>78</v>
+      </c>
+      <c r="L255">
+        <v>865</v>
+      </c>
+      <c r="M255" t="s">
+        <v>1525</v>
+      </c>
+      <c r="N255" s="1" t="s">
+        <v>1457</v>
+      </c>
+      <c r="O255" s="1" t="s">
+        <v>1233</v>
+      </c>
+      <c r="P255" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q255" s="1" t="s">
+        <v>1536</v>
+      </c>
+      <c r="R255" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="S255" s="1" t="s">
+        <v>1552</v>
+      </c>
+      <c r="T255" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="U255" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="V255" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="W255" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="X255" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="Y255" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z255" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA255" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB255" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC255" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD255" t="s">
+        <v>1554</v>
+      </c>
+    </row>
+    <row r="256" spans="1:30">
+      <c r="A256" t="s">
+        <v>1491</v>
+      </c>
+      <c r="B256" t="str">
+        <f t="shared" si="4"/>
+        <v>CT2019_195</v>
+      </c>
+      <c r="C256" s="1" t="s">
+        <v>1501</v>
+      </c>
+      <c r="D256" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E256" s="1" t="s">
+        <v>1516</v>
+      </c>
+      <c r="F256">
+        <v>32</v>
+      </c>
+      <c r="G256" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H256">
+        <v>72</v>
+      </c>
+      <c r="I256">
+        <v>43</v>
+      </c>
+      <c r="J256" t="s">
+        <v>399</v>
+      </c>
+      <c r="K256" t="s">
+        <v>78</v>
+      </c>
+      <c r="L256">
+        <v>866</v>
+      </c>
+      <c r="M256" t="s">
+        <v>96</v>
+      </c>
+      <c r="N256" s="1" t="s">
+        <v>1457</v>
+      </c>
+      <c r="O256" s="1" t="s">
+        <v>1234</v>
+      </c>
+      <c r="P256" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q256" s="1" t="s">
+        <v>1537</v>
+      </c>
+      <c r="R256" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="S256" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="T256" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="U256" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="V256" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="W256" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="X256" s="1" t="s">
+        <v>914</v>
+      </c>
+      <c r="Y256" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z256" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA256" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB256" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC256" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="1:30">
+      <c r="A257" t="s">
+        <v>1492</v>
+      </c>
+      <c r="B257" t="str">
+        <f t="shared" si="4"/>
+        <v>CT2019_195</v>
+      </c>
+      <c r="C257" s="1" t="s">
+        <v>1501</v>
+      </c>
+      <c r="D257" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="E257" s="1" t="s">
+        <v>1390</v>
+      </c>
+      <c r="F257">
+        <v>30</v>
+      </c>
+      <c r="G257" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H257">
+        <v>91</v>
+      </c>
+      <c r="I257">
+        <v>55</v>
+      </c>
+      <c r="J257" t="s">
+        <v>77</v>
+      </c>
+      <c r="K257" t="s">
+        <v>78</v>
+      </c>
+      <c r="L257">
+        <v>867</v>
+      </c>
+      <c r="M257" t="s">
+        <v>1526</v>
+      </c>
+      <c r="N257" s="1" t="s">
+        <v>1457</v>
+      </c>
+      <c r="O257" s="1" t="s">
+        <v>1235</v>
+      </c>
+      <c r="P257" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q257" s="1" t="s">
+        <v>1538</v>
+      </c>
+      <c r="R257" s="1" t="s">
+        <v>1546</v>
+      </c>
+      <c r="S257" s="1" t="s">
+        <v>1553</v>
+      </c>
+      <c r="T257" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="U257" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="V257" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="W257" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="X257" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="Y257" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z257" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA257" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB257" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC257" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="258" spans="1:30">
+      <c r="A258" t="s">
+        <v>1493</v>
+      </c>
+      <c r="B258" t="str">
+        <f t="shared" si="4"/>
+        <v>CT2019_195</v>
+      </c>
+      <c r="C258" s="1" t="s">
+        <v>1501</v>
+      </c>
+      <c r="D258" s="1" t="s">
+        <v>1509</v>
+      </c>
+      <c r="E258" s="1" t="s">
+        <v>1517</v>
+      </c>
+      <c r="F258">
+        <v>24</v>
+      </c>
+      <c r="G258" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H258">
+        <v>82</v>
+      </c>
+      <c r="I258">
+        <v>48</v>
+      </c>
+      <c r="J258" t="s">
+        <v>77</v>
+      </c>
+      <c r="K258" t="s">
+        <v>132</v>
+      </c>
+      <c r="L258">
+        <v>868</v>
+      </c>
+      <c r="M258" t="s">
+        <v>96</v>
+      </c>
+      <c r="N258" s="1" t="s">
+        <v>1457</v>
+      </c>
+      <c r="O258" s="1" t="s">
+        <v>1236</v>
+      </c>
+      <c r="P258" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q258" s="1" t="s">
+        <v>1539</v>
+      </c>
+      <c r="R258" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="S258" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="T258" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="U258" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="V258" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="W258" s="1" t="s">
+        <v>915</v>
+      </c>
+      <c r="X258" s="1" t="s">
+        <v>1201</v>
+      </c>
+      <c r="Y258" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z258" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA258" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB258" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC258" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="1:30">
+      <c r="A259" t="s">
+        <v>1494</v>
+      </c>
+      <c r="B259" t="str">
+        <f t="shared" si="4"/>
+        <v>CT2019_196</v>
+      </c>
+      <c r="C259" s="1" t="s">
+        <v>1502</v>
+      </c>
+      <c r="D259" s="1" t="s">
+        <v>1510</v>
+      </c>
+      <c r="E259" s="1" t="s">
+        <v>1518</v>
+      </c>
+      <c r="F259">
+        <v>26</v>
+      </c>
+      <c r="G259" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H259">
+        <v>65</v>
+      </c>
+      <c r="I259">
+        <v>40</v>
+      </c>
+      <c r="J259" t="s">
+        <v>77</v>
+      </c>
+      <c r="K259" t="s">
+        <v>78</v>
+      </c>
+      <c r="L259">
+        <v>869</v>
+      </c>
+      <c r="M259" t="s">
+        <v>96</v>
+      </c>
+      <c r="N259" s="1" t="s">
+        <v>1457</v>
+      </c>
+      <c r="O259" s="1" t="s">
+        <v>1237</v>
+      </c>
+      <c r="P259" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q259" s="1" t="s">
+        <v>1540</v>
+      </c>
+      <c r="R259" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="S259" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="T259" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="U259" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="V259" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="W259" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="X259" s="1" t="s">
+        <v>679</v>
+      </c>
+      <c r="Y259" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z259" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA259" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB259" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC259" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:30">
+      <c r="A260" t="s">
+        <v>1495</v>
+      </c>
+      <c r="B260" t="str">
+        <f t="shared" si="4"/>
+        <v>CT2019_196</v>
+      </c>
+      <c r="C260" s="1" t="s">
+        <v>1502</v>
+      </c>
+      <c r="D260" s="1" t="s">
+        <v>1511</v>
+      </c>
+      <c r="E260" s="1" t="s">
+        <v>1519</v>
+      </c>
+      <c r="F260">
+        <v>32</v>
+      </c>
+      <c r="G260" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H260">
+        <v>84</v>
+      </c>
+      <c r="I260">
+        <v>51</v>
+      </c>
+      <c r="J260" t="s">
+        <v>515</v>
+      </c>
+      <c r="K260" t="s">
+        <v>78</v>
+      </c>
+      <c r="L260">
+        <v>870</v>
+      </c>
+      <c r="M260" t="s">
+        <v>1527</v>
+      </c>
+      <c r="N260" s="1" t="s">
+        <v>1457</v>
+      </c>
+      <c r="O260" s="1" t="s">
+        <v>1307</v>
+      </c>
+      <c r="P260" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q260" s="1" t="s">
+        <v>1541</v>
+      </c>
+      <c r="R260" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="S260" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="T260" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="U260" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="V260" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="W260" s="1" t="s">
+        <v>906</v>
+      </c>
+      <c r="X260" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="Y260" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z260" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA260" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB260" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC260" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD260" t="s">
+        <v>1547</v>
+      </c>
+    </row>
+    <row r="261" spans="1:30">
+      <c r="A261" t="s">
+        <v>1496</v>
+      </c>
+      <c r="B261" t="str">
+        <f t="shared" si="4"/>
+        <v>CT2019_201</v>
+      </c>
+      <c r="C261" s="1" t="s">
+        <v>1503</v>
+      </c>
+      <c r="D261" s="1" t="s">
+        <v>1512</v>
+      </c>
+      <c r="E261" s="1" t="s">
+        <v>1520</v>
+      </c>
+      <c r="F261">
+        <v>28</v>
+      </c>
+      <c r="G261" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H261">
+        <v>69</v>
+      </c>
+      <c r="I261">
+        <v>38</v>
+      </c>
+      <c r="J261" t="s">
+        <v>399</v>
+      </c>
+      <c r="K261" t="s">
+        <v>132</v>
+      </c>
+      <c r="L261">
+        <v>871</v>
+      </c>
+      <c r="M261" t="s">
+        <v>96</v>
+      </c>
+      <c r="N261" s="1" t="s">
+        <v>1457</v>
+      </c>
+      <c r="O261" s="1" t="s">
+        <v>1308</v>
+      </c>
+      <c r="P261" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q261" s="1" t="s">
+        <v>1542</v>
+      </c>
+      <c r="R261" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="S261" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="T261" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="U261" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="V261" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="W261" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="X261" s="1" t="s">
+        <v>779</v>
+      </c>
+      <c r="Y261" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z261" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA261" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB261" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC261" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="1:30">
+      <c r="A262" t="s">
+        <v>1557</v>
+      </c>
+      <c r="B262" t="str">
+        <f t="shared" si="4"/>
+        <v>CT2019_201</v>
+      </c>
+      <c r="C262" s="1" t="s">
+        <v>1503</v>
+      </c>
+      <c r="D262" s="1" t="s">
+        <v>1564</v>
+      </c>
+      <c r="E262" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F262">
+        <v>26</v>
+      </c>
+      <c r="G262" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H262">
+        <v>78</v>
+      </c>
+      <c r="I262">
+        <v>48</v>
+      </c>
+      <c r="J262" t="s">
+        <v>77</v>
+      </c>
+      <c r="K262" t="s">
+        <v>132</v>
+      </c>
+      <c r="L262">
+        <v>872</v>
+      </c>
+      <c r="M262" t="s">
+        <v>1571</v>
+      </c>
+      <c r="N262" s="1" t="s">
+        <v>1458</v>
+      </c>
+      <c r="O262" s="1" t="s">
+        <v>1309</v>
+      </c>
+      <c r="P262" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q262" s="1" t="s">
+        <v>1573</v>
+      </c>
+      <c r="R262" s="1" t="s">
+        <v>1577</v>
+      </c>
+      <c r="S262" s="1" t="s">
+        <v>1578</v>
+      </c>
+      <c r="T262" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="U262" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="V262" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="W262" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="X262" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="Y262" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z262" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA262" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB262" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC262" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="1:30">
+      <c r="A263" t="s">
+        <v>1558</v>
+      </c>
+      <c r="B263" t="str">
+        <f t="shared" si="4"/>
+        <v>CT2019_203</v>
+      </c>
+      <c r="C263" s="1" t="s">
+        <v>1562</v>
+      </c>
+      <c r="D263" s="1" t="s">
+        <v>727</v>
+      </c>
+      <c r="E263" s="1" t="s">
+        <v>728</v>
+      </c>
+      <c r="F263">
+        <v>26</v>
+      </c>
+      <c r="G263" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H263">
+        <v>85</v>
+      </c>
+      <c r="I263">
+        <v>50</v>
+      </c>
+      <c r="J263" t="s">
+        <v>77</v>
+      </c>
+      <c r="K263" t="s">
+        <v>78</v>
+      </c>
+      <c r="L263">
+        <v>873</v>
+      </c>
+      <c r="M263" t="s">
+        <v>1572</v>
+      </c>
+      <c r="N263" s="1" t="s">
+        <v>1458</v>
+      </c>
+      <c r="O263" s="1" t="s">
+        <v>1310</v>
+      </c>
+      <c r="P263" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q263" s="1" t="s">
+        <v>1574</v>
+      </c>
+      <c r="R263" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="S263" s="1" t="s">
+        <v>1579</v>
+      </c>
+      <c r="T263" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="U263" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="V263" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="W263" s="1" t="s">
+        <v>910</v>
+      </c>
+      <c r="X263" s="1" t="s">
+        <v>915</v>
+      </c>
+      <c r="Y263" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z263" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA263" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB263" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC263" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:30">
+      <c r="A264" t="s">
+        <v>1559</v>
+      </c>
+      <c r="B264" t="str">
+        <f t="shared" si="4"/>
+        <v>CT2019_203</v>
+      </c>
+      <c r="C264" s="1" t="s">
+        <v>1562</v>
+      </c>
+      <c r="D264" s="1" t="s">
+        <v>1565</v>
+      </c>
+      <c r="E264" s="1" t="s">
+        <v>1568</v>
+      </c>
+      <c r="F264">
+        <v>30</v>
+      </c>
+      <c r="G264" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H264">
+        <v>73</v>
+      </c>
+      <c r="I264">
+        <v>41</v>
+      </c>
+      <c r="J264" t="s">
+        <v>77</v>
+      </c>
+      <c r="K264" t="s">
+        <v>78</v>
+      </c>
+      <c r="L264">
+        <v>874</v>
+      </c>
+      <c r="M264" t="s">
+        <v>96</v>
+      </c>
+      <c r="N264" s="1" t="s">
+        <v>1458</v>
+      </c>
+      <c r="O264" s="1" t="s">
+        <v>1311</v>
+      </c>
+      <c r="P264" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q264" s="1" t="s">
+        <v>1575</v>
+      </c>
+      <c r="R264" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="S264" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="T264" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="U264" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="V264" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="W264" s="1" t="s">
+        <v>1418</v>
+      </c>
+      <c r="X264" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="Y264" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z264" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA264" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB264" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC264" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD264" t="s">
+        <v>1580</v>
+      </c>
+    </row>
+    <row r="265" spans="1:30">
+      <c r="A265" t="s">
+        <v>1560</v>
+      </c>
+      <c r="B265" t="str">
+        <f t="shared" si="4"/>
+        <v>CT2019_204</v>
+      </c>
+      <c r="C265" s="1" t="s">
+        <v>1563</v>
+      </c>
+      <c r="D265" s="1" t="s">
+        <v>1566</v>
+      </c>
+      <c r="E265" s="1" t="s">
+        <v>1569</v>
+      </c>
+      <c r="F265">
+        <v>26</v>
+      </c>
+      <c r="G265" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H265">
+        <v>63</v>
+      </c>
+      <c r="I265">
+        <v>37</v>
+      </c>
+      <c r="J265" t="s">
+        <v>399</v>
+      </c>
+      <c r="K265" t="s">
+        <v>132</v>
+      </c>
+      <c r="L265">
+        <v>875</v>
+      </c>
+      <c r="M265" t="s">
+        <v>96</v>
+      </c>
+      <c r="N265" s="1" t="s">
+        <v>1458</v>
+      </c>
+      <c r="O265" s="1" t="s">
+        <v>1233</v>
+      </c>
+      <c r="P265" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q265" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="R265" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="S265" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="T265" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="U265" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="V265" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="W265" s="1" t="s">
+        <v>844</v>
+      </c>
+      <c r="X265" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="Y265" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z265" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA265" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB265" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC265" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="1:30">
+      <c r="A266" t="s">
+        <v>1561</v>
+      </c>
+      <c r="B266" t="str">
+        <f t="shared" si="4"/>
+        <v>CT2019_204</v>
+      </c>
+      <c r="C266" s="1" t="s">
+        <v>1563</v>
+      </c>
+      <c r="D266" s="1" t="s">
+        <v>1567</v>
+      </c>
+      <c r="E266" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="F266">
+        <v>30</v>
+      </c>
+      <c r="G266" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H266">
+        <v>70</v>
+      </c>
+      <c r="I266">
+        <v>41</v>
+      </c>
+      <c r="J266" t="s">
+        <v>77</v>
+      </c>
+      <c r="K266" t="s">
+        <v>132</v>
+      </c>
+      <c r="L266">
+        <v>876</v>
+      </c>
+      <c r="M266" t="s">
+        <v>96</v>
+      </c>
+      <c r="N266" s="1" t="s">
+        <v>1458</v>
+      </c>
+      <c r="O266" s="1" t="s">
+        <v>1234</v>
+      </c>
+      <c r="P266" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q266" s="1" t="s">
+        <v>1576</v>
+      </c>
+      <c r="R266" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="S266" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="T266" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="U266" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="V266" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="W266" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="X266" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="Y266" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z266" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA266" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB266" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC266" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="1:30">
+      <c r="A267" t="s">
+        <v>1581</v>
+      </c>
+      <c r="B267" t="str">
+        <f t="shared" si="4"/>
+        <v>CT2019_205</v>
+      </c>
+      <c r="C267" s="1" t="s">
+        <v>1596</v>
+      </c>
+      <c r="D267" s="1" t="s">
+        <v>1604</v>
+      </c>
+      <c r="E267" s="1" t="s">
+        <v>808</v>
+      </c>
+      <c r="F267">
+        <v>24</v>
+      </c>
+      <c r="G267" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H267">
+        <v>57</v>
+      </c>
+      <c r="I267">
+        <v>30</v>
+      </c>
+      <c r="J267" t="s">
+        <v>77</v>
+      </c>
+      <c r="K267" t="s">
+        <v>132</v>
+      </c>
+      <c r="L267">
+        <v>877</v>
+      </c>
+      <c r="M267" t="s">
+        <v>1610</v>
+      </c>
+      <c r="N267" s="1" t="s">
+        <v>1458</v>
+      </c>
+      <c r="O267" s="1" t="s">
+        <v>1235</v>
+      </c>
+      <c r="P267" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q267" s="1" t="s">
+        <v>1612</v>
+      </c>
+      <c r="R267" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="S267" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="T267" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="U267" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="V267" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="W267" s="1" t="s">
+        <v>780</v>
+      </c>
+      <c r="X267" s="1" t="s">
+        <v>1481</v>
+      </c>
+      <c r="Y267" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z267" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA267" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB267" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC267" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="1:30">
+      <c r="A268" t="s">
+        <v>1582</v>
+      </c>
+      <c r="B268" t="str">
+        <f t="shared" si="4"/>
+        <v>CT2019_206</v>
+      </c>
+      <c r="C268" s="1" t="s">
+        <v>1597</v>
+      </c>
+      <c r="D268" s="1" t="s">
+        <v>1156</v>
+      </c>
+      <c r="E268" s="1" t="s">
+        <v>1606</v>
+      </c>
+      <c r="F268">
+        <v>24</v>
+      </c>
+      <c r="G268" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H268">
+        <v>87</v>
+      </c>
+      <c r="I268">
+        <v>49</v>
+      </c>
+      <c r="J268" t="s">
+        <v>77</v>
+      </c>
+      <c r="K268" t="s">
+        <v>78</v>
+      </c>
+      <c r="L268">
+        <v>878</v>
+      </c>
+      <c r="M268" t="s">
+        <v>96</v>
+      </c>
+      <c r="N268" s="1" t="s">
+        <v>1458</v>
+      </c>
+      <c r="O268" s="1" t="s">
+        <v>1236</v>
+      </c>
+      <c r="P268" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q268" s="1" t="s">
+        <v>1613</v>
+      </c>
+      <c r="R268" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="S268" s="1" t="s">
+        <v>1627</v>
+      </c>
+      <c r="T268" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="U268" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="V268" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="W268" s="1" t="s">
+        <v>1628</v>
+      </c>
+      <c r="X268" s="1" t="s">
+        <v>775</v>
+      </c>
+      <c r="Y268" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z268" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA268" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB268" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC268" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="1:30">
+      <c r="A269" t="s">
+        <v>1583</v>
+      </c>
+      <c r="B269" t="str">
+        <f t="shared" si="4"/>
+        <v>CT2019_208</v>
+      </c>
+      <c r="C269" s="1" t="s">
+        <v>1598</v>
+      </c>
+      <c r="D269" s="1" t="s">
+        <v>871</v>
+      </c>
+      <c r="E269" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="F269">
+        <v>16</v>
+      </c>
+      <c r="G269" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H269">
+        <v>81</v>
+      </c>
+      <c r="I269">
+        <v>47</v>
+      </c>
+      <c r="J269" t="s">
+        <v>399</v>
+      </c>
+      <c r="K269" t="s">
+        <v>132</v>
+      </c>
+      <c r="L269">
+        <v>879</v>
+      </c>
+      <c r="M269" t="s">
+        <v>96</v>
+      </c>
+      <c r="N269" s="1" t="s">
+        <v>1458</v>
+      </c>
+      <c r="O269" s="1" t="s">
+        <v>1237</v>
+      </c>
+      <c r="P269" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q269" s="1" t="s">
+        <v>1614</v>
+      </c>
+      <c r="R269" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="S269" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="T269" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="U269" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="V269" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="W269" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="X269" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="Y269" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z269" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA269" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB269" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC269" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD269" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="270" spans="1:30">
+      <c r="A270" t="s">
+        <v>1584</v>
+      </c>
+      <c r="B270" t="str">
+        <f t="shared" si="4"/>
+        <v>CT2019_208</v>
+      </c>
+      <c r="C270" s="1" t="s">
+        <v>1598</v>
+      </c>
+      <c r="D270" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="E270" s="1" t="s">
+        <v>1607</v>
+      </c>
+      <c r="F270">
+        <v>28</v>
+      </c>
+      <c r="G270" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H270">
+        <v>75</v>
+      </c>
+      <c r="I270">
+        <v>44</v>
+      </c>
+      <c r="J270" t="s">
+        <v>77</v>
+      </c>
+      <c r="K270" t="s">
+        <v>78</v>
+      </c>
+      <c r="L270">
+        <v>880</v>
+      </c>
+      <c r="M270" t="s">
+        <v>96</v>
+      </c>
+      <c r="N270" s="1" t="s">
+        <v>1458</v>
+      </c>
+      <c r="O270" s="1" t="s">
+        <v>1307</v>
+      </c>
+      <c r="P270" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q270" s="1" t="s">
+        <v>1615</v>
+      </c>
+      <c r="R270" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="S270" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="T270" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="U270" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="V270" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="W270" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="X270" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="Y270" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z270" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA270" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB270" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC270" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD270" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="271" spans="1:30">
+      <c r="A271" t="s">
+        <v>1585</v>
+      </c>
+      <c r="B271" t="str">
+        <f t="shared" si="4"/>
+        <v>CT2019_209</v>
+      </c>
+      <c r="C271" s="1" t="s">
+        <v>1599</v>
+      </c>
+      <c r="D271" s="1" t="s">
+        <v>1002</v>
+      </c>
+      <c r="E271" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="F271">
+        <v>24</v>
+      </c>
+      <c r="G271" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H271">
+        <v>60</v>
+      </c>
+      <c r="I271">
+        <v>30</v>
+      </c>
+      <c r="J271" t="s">
+        <v>77</v>
+      </c>
+      <c r="K271" t="s">
+        <v>132</v>
+      </c>
+      <c r="L271">
+        <v>881</v>
+      </c>
+      <c r="M271" t="s">
+        <v>96</v>
+      </c>
+      <c r="N271" s="1" t="s">
+        <v>1458</v>
+      </c>
+      <c r="O271" s="1" t="s">
+        <v>1308</v>
+      </c>
+      <c r="P271" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q271" s="1" t="s">
+        <v>1616</v>
+      </c>
+      <c r="R271" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="S271" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="T271" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="U271" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="V271" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="W271" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="X271" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="Y271" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z271" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA271" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB271" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC271" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="1:30">
+      <c r="A272" t="s">
+        <v>1586</v>
+      </c>
+      <c r="B272" t="str">
+        <f t="shared" si="4"/>
+        <v>CT2019_209</v>
+      </c>
+      <c r="C272" s="1" t="s">
+        <v>1599</v>
+      </c>
+      <c r="D272" s="1" t="s">
+        <v>1218</v>
+      </c>
+      <c r="E272" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="F272">
+        <v>28</v>
+      </c>
+      <c r="G272" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H272">
+        <v>70</v>
+      </c>
+      <c r="I272">
+        <v>41</v>
+      </c>
+      <c r="J272" t="s">
+        <v>77</v>
+      </c>
+      <c r="K272" t="s">
+        <v>78</v>
+      </c>
+      <c r="L272">
+        <v>882</v>
+      </c>
+      <c r="M272" t="s">
+        <v>96</v>
+      </c>
+      <c r="N272" s="1" t="s">
+        <v>1611</v>
+      </c>
+      <c r="O272" s="1" t="s">
+        <v>1309</v>
+      </c>
+      <c r="P272" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q272" s="1" t="s">
+        <v>1617</v>
+      </c>
+      <c r="R272" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="S272" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="T272" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="U272" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="V272" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="W272" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="X272" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="Y272" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z272" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA272" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB272" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC272" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="1:30">
+      <c r="A273" t="s">
+        <v>1587</v>
+      </c>
+      <c r="B273" t="str">
+        <f t="shared" si="4"/>
+        <v>CT2019_209</v>
+      </c>
+      <c r="C273" s="1" t="s">
+        <v>1599</v>
+      </c>
+      <c r="D273" s="1" t="s">
+        <v>1450</v>
+      </c>
+      <c r="E273" s="1" t="s">
+        <v>872</v>
+      </c>
+      <c r="F273">
+        <v>20</v>
+      </c>
+      <c r="G273" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H273">
+        <v>67</v>
+      </c>
+      <c r="I273">
+        <v>39</v>
+      </c>
+      <c r="J273" t="s">
+        <v>77</v>
+      </c>
+      <c r="K273" t="s">
+        <v>78</v>
+      </c>
+      <c r="L273">
+        <v>883</v>
+      </c>
+      <c r="M273" t="s">
+        <v>96</v>
+      </c>
+      <c r="N273" s="1" t="s">
+        <v>1611</v>
+      </c>
+      <c r="O273" s="1" t="s">
+        <v>1310</v>
+      </c>
+      <c r="P273" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q273" s="1" t="s">
+        <v>1618</v>
+      </c>
+      <c r="R273" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="S273" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="T273" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="U273" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="V273" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="W273" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="X273" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="Y273" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z273" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA273" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB273" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC273" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="1:30">
+      <c r="A274" t="s">
+        <v>1588</v>
+      </c>
+      <c r="B274" t="str">
+        <f t="shared" si="4"/>
+        <v>CT2019_209</v>
+      </c>
+      <c r="C274" s="1" t="s">
+        <v>1599</v>
+      </c>
+      <c r="D274" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="E274" s="1" t="s">
+        <v>873</v>
+      </c>
+      <c r="F274">
+        <v>26</v>
+      </c>
+      <c r="G274" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H274">
+        <v>65</v>
+      </c>
+      <c r="I274">
+        <v>39</v>
+      </c>
+      <c r="J274" t="s">
+        <v>77</v>
+      </c>
+      <c r="K274" t="s">
+        <v>132</v>
+      </c>
+      <c r="L274">
+        <v>884</v>
+      </c>
+      <c r="M274" t="s">
+        <v>96</v>
+      </c>
+      <c r="N274" s="1" t="s">
+        <v>1611</v>
+      </c>
+      <c r="O274" s="1" t="s">
+        <v>1311</v>
+      </c>
+      <c r="P274" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q274" s="1" t="s">
+        <v>1619</v>
+      </c>
+      <c r="R274" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="S274" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="T274" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="U274" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="V274" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="W274" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="X274" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="Y274" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z274" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA274" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB274" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC274" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="1:30">
+      <c r="A275" t="s">
+        <v>1589</v>
+      </c>
+      <c r="B275" t="str">
+        <f t="shared" si="4"/>
+        <v>CT2019_210</v>
+      </c>
+      <c r="C275" s="1" t="s">
+        <v>1600</v>
+      </c>
+      <c r="D275" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="E275" s="1" t="s">
+        <v>1608</v>
+      </c>
+      <c r="F275">
+        <v>28</v>
+      </c>
+      <c r="G275" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H275">
+        <v>65</v>
+      </c>
+      <c r="I275">
+        <v>36</v>
+      </c>
+      <c r="J275" t="s">
+        <v>77</v>
+      </c>
+      <c r="K275" t="s">
+        <v>132</v>
+      </c>
+      <c r="L275">
+        <v>885</v>
+      </c>
+      <c r="M275" t="s">
+        <v>96</v>
+      </c>
+      <c r="N275" s="1" t="s">
+        <v>1611</v>
+      </c>
+      <c r="O275" s="1" t="s">
+        <v>1233</v>
+      </c>
+      <c r="P275" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q275" s="1" t="s">
+        <v>1620</v>
+      </c>
+      <c r="R275" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="S275" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="T275" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="U275" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="V275" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="W275" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="X275" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="Y275" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z275" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA275" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB275" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC275" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="1:30">
+      <c r="A276" t="s">
+        <v>1590</v>
+      </c>
+      <c r="B276" t="str">
+        <f t="shared" si="4"/>
+        <v>CT2019_210</v>
+      </c>
+      <c r="C276" s="1" t="s">
+        <v>1600</v>
+      </c>
+      <c r="D276" s="1" t="s">
+        <v>876</v>
+      </c>
+      <c r="E276" s="1" t="s">
+        <v>1063</v>
+      </c>
+      <c r="F276">
+        <v>26</v>
+      </c>
+      <c r="G276" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H276">
+        <v>63</v>
+      </c>
+      <c r="I276">
+        <v>34</v>
+      </c>
+      <c r="J276" t="s">
+        <v>77</v>
+      </c>
+      <c r="K276" t="s">
+        <v>132</v>
+      </c>
+      <c r="L276">
+        <v>886</v>
+      </c>
+      <c r="M276" t="s">
+        <v>96</v>
+      </c>
+      <c r="N276" s="1" t="s">
+        <v>1611</v>
+      </c>
+      <c r="O276" s="1" t="s">
+        <v>1234</v>
+      </c>
+      <c r="P276" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q276" s="1" t="s">
+        <v>1621</v>
+      </c>
+      <c r="R276" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="S276" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="T276" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="U276" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="V276" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="W276" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="X276" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="Y276" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z276" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA276" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB276" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC276" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="1:30">
+      <c r="A277" t="s">
+        <v>1591</v>
+      </c>
+      <c r="B277" t="str">
+        <f t="shared" si="4"/>
+        <v>CT2019_211</v>
+      </c>
+      <c r="C277" s="1" t="s">
+        <v>1601</v>
+      </c>
+      <c r="D277" s="1" t="s">
+        <v>1448</v>
+      </c>
+      <c r="E277" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="F277">
+        <v>28</v>
+      </c>
+      <c r="G277" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H277">
+        <v>51</v>
+      </c>
+      <c r="I277">
+        <v>28</v>
+      </c>
+      <c r="J277" t="s">
+        <v>77</v>
+      </c>
+      <c r="K277" t="s">
+        <v>132</v>
+      </c>
+      <c r="L277">
+        <v>887</v>
+      </c>
+      <c r="M277" t="s">
+        <v>96</v>
+      </c>
+      <c r="N277" s="1" t="s">
+        <v>1611</v>
+      </c>
+      <c r="O277" s="1" t="s">
+        <v>1235</v>
+      </c>
+      <c r="P277" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q277" s="1" t="s">
+        <v>1622</v>
+      </c>
+      <c r="R277" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="S277" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="T277" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="U277" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="V277" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="W277" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="X277" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="Y277" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z277" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA277" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB277" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC277" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" spans="1:30">
+      <c r="A278" t="s">
+        <v>1592</v>
+      </c>
+      <c r="B278" t="str">
+        <f t="shared" si="4"/>
+        <v>CT2019_211</v>
+      </c>
+      <c r="C278" s="1" t="s">
+        <v>1601</v>
+      </c>
+      <c r="D278" s="1" t="s">
+        <v>1605</v>
+      </c>
+      <c r="E278" s="1" t="s">
+        <v>1449</v>
+      </c>
+      <c r="F278">
+        <v>30</v>
+      </c>
+      <c r="G278" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H278">
+        <v>61</v>
+      </c>
+      <c r="I278">
+        <v>34</v>
+      </c>
+      <c r="J278" t="s">
+        <v>77</v>
+      </c>
+      <c r="K278" t="s">
+        <v>132</v>
+      </c>
+      <c r="L278">
+        <v>888</v>
+      </c>
+      <c r="M278" t="s">
+        <v>96</v>
+      </c>
+      <c r="N278" s="1" t="s">
+        <v>1611</v>
+      </c>
+      <c r="O278" s="1" t="s">
+        <v>1236</v>
+      </c>
+      <c r="P278" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q278" s="1" t="s">
+        <v>1623</v>
+      </c>
+      <c r="R278" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="S278" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="T278" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="U278" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="V278" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="W278" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="X278" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="Y278" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z278" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA278" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB278" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC278" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="1:30">
+      <c r="A279" t="s">
+        <v>1593</v>
+      </c>
+      <c r="B279" t="str">
+        <f t="shared" si="4"/>
+        <v>CT2019_212</v>
+      </c>
+      <c r="C279" s="1" t="s">
+        <v>1602</v>
+      </c>
+      <c r="D279" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="E279" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="F279">
+        <v>28</v>
+      </c>
+      <c r="G279" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H279">
+        <v>76</v>
+      </c>
+      <c r="I279">
+        <v>42</v>
+      </c>
+      <c r="J279" t="s">
+        <v>77</v>
+      </c>
+      <c r="K279" t="s">
+        <v>78</v>
+      </c>
+      <c r="L279">
+        <v>889</v>
+      </c>
+      <c r="M279" t="s">
+        <v>96</v>
+      </c>
+      <c r="N279" s="1" t="s">
+        <v>1611</v>
+      </c>
+      <c r="O279" s="1" t="s">
+        <v>1237</v>
+      </c>
+      <c r="P279" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q279" s="1" t="s">
+        <v>1624</v>
+      </c>
+      <c r="R279" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="S279" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="T279" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="U279" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="V279" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="W279" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="X279" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="Y279" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z279" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA279" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB279" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC279" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD279" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="280" spans="1:30">
+      <c r="A280" t="s">
+        <v>1594</v>
+      </c>
+      <c r="B280" t="str">
+        <f t="shared" si="4"/>
+        <v>CT2019_213</v>
+      </c>
+      <c r="C280" s="1" t="s">
+        <v>1603</v>
+      </c>
+      <c r="D280" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="E280" s="1" t="s">
+        <v>1058</v>
+      </c>
+      <c r="F280">
+        <v>28</v>
+      </c>
+      <c r="G280" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H280">
+        <v>76</v>
+      </c>
+      <c r="I280">
+        <v>45</v>
+      </c>
+      <c r="J280" t="s">
+        <v>77</v>
+      </c>
+      <c r="K280" t="s">
+        <v>132</v>
+      </c>
+      <c r="L280">
+        <v>890</v>
+      </c>
+      <c r="M280" t="s">
+        <v>96</v>
+      </c>
+      <c r="N280" s="1" t="s">
+        <v>1611</v>
+      </c>
+      <c r="O280" s="1" t="s">
+        <v>1307</v>
+      </c>
+      <c r="P280" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q280" s="1" t="s">
+        <v>1625</v>
+      </c>
+      <c r="R280" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="S280" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="T280" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="U280" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="V280" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="W280" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="X280" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="Y280" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z280" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA280" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB280" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC280" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD280" t="s">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="281" spans="1:30">
+      <c r="A281" t="s">
+        <v>1595</v>
+      </c>
+      <c r="B281" t="str">
+        <f t="shared" si="4"/>
+        <v>CT2019_213</v>
+      </c>
+      <c r="C281" s="1" t="s">
+        <v>1603</v>
+      </c>
+      <c r="D281" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="E281" s="1" t="s">
+        <v>1609</v>
+      </c>
+      <c r="F281">
+        <v>26</v>
+      </c>
+      <c r="G281" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H281">
+        <v>55</v>
+      </c>
+      <c r="I281">
+        <v>29</v>
+      </c>
+      <c r="J281" t="s">
+        <v>77</v>
+      </c>
+      <c r="K281" t="s">
+        <v>78</v>
+      </c>
+      <c r="L281">
+        <v>891</v>
+      </c>
+      <c r="M281" t="s">
+        <v>96</v>
+      </c>
+      <c r="N281" s="1" t="s">
+        <v>1611</v>
+      </c>
+      <c r="O281" s="1" t="s">
+        <v>1308</v>
+      </c>
+      <c r="P281" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q281" s="1" t="s">
+        <v>1626</v>
+      </c>
+      <c r="R281" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="S281" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="T281" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="U281" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="V281" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="W281" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="X281" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="Y281" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z281" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA281" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB281" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC281" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD281" t="s">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="282" spans="1:30">
+      <c r="A282" t="s">
+        <v>1629</v>
+      </c>
+      <c r="B282" t="str">
+        <f t="shared" si="4"/>
+        <v>CT2019_213</v>
+      </c>
+      <c r="C282" s="1" t="s">
+        <v>1603</v>
+      </c>
+      <c r="D282" s="1" t="s">
+        <v>1387</v>
+      </c>
+      <c r="E282" s="1" t="s">
+        <v>1645</v>
+      </c>
+      <c r="F282">
+        <v>24</v>
+      </c>
+      <c r="G282" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H282">
+        <v>65</v>
+      </c>
+      <c r="I282">
+        <v>37</v>
+      </c>
+      <c r="J282" t="s">
+        <v>77</v>
+      </c>
+      <c r="K282" t="s">
+        <v>78</v>
+      </c>
+      <c r="L282">
+        <v>892</v>
+      </c>
+      <c r="M282" t="s">
+        <v>96</v>
+      </c>
+      <c r="N282" s="1" t="s">
+        <v>1459</v>
+      </c>
+      <c r="O282" s="1" t="s">
+        <v>1309</v>
+      </c>
+      <c r="P282" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q282" s="1" t="s">
+        <v>1656</v>
+      </c>
+      <c r="R282" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="S282" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="T282" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="U282" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="V282" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="W282" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="X282" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="Y282" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z282" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA282" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB282" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC282" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="1:30">
+      <c r="A283" t="s">
+        <v>1630</v>
+      </c>
+      <c r="B283" t="str">
+        <f t="shared" si="4"/>
+        <v>CT2019_213</v>
+      </c>
+      <c r="C283" s="1" t="s">
+        <v>1603</v>
+      </c>
+      <c r="D283" s="1" t="s">
+        <v>1645</v>
+      </c>
+      <c r="E283" s="1" t="s">
+        <v>1650</v>
+      </c>
+      <c r="F283">
+        <v>28</v>
+      </c>
+      <c r="G283" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H283">
+        <v>63</v>
+      </c>
+      <c r="I283">
+        <v>37</v>
+      </c>
+      <c r="J283" t="s">
+        <v>77</v>
+      </c>
+      <c r="K283" t="s">
+        <v>78</v>
+      </c>
+      <c r="L283">
+        <v>893</v>
+      </c>
+      <c r="M283" t="s">
+        <v>96</v>
+      </c>
+      <c r="N283" s="1" t="s">
+        <v>1459</v>
+      </c>
+      <c r="O283" s="1" t="s">
+        <v>1310</v>
+      </c>
+      <c r="P283" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q283" s="1" t="s">
+        <v>1657</v>
+      </c>
+      <c r="R283" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="S283" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="T283" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="U283" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="V283" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="W283" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="X283" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="Y283" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z283" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA283" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB283" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC283" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD283" t="s">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="284" spans="1:30">
+      <c r="A284" t="s">
+        <v>1631</v>
+      </c>
+      <c r="B284" t="str">
+        <f t="shared" si="4"/>
+        <v>CT2019_214</v>
+      </c>
+      <c r="C284" s="1" t="s">
+        <v>1642</v>
+      </c>
+      <c r="D284" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="E284" s="1" t="s">
+        <v>1651</v>
+      </c>
+      <c r="F284">
+        <v>24</v>
+      </c>
+      <c r="G284" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H284">
+        <v>65</v>
+      </c>
+      <c r="I284">
+        <v>38</v>
+      </c>
+      <c r="J284" t="s">
+        <v>77</v>
+      </c>
+      <c r="K284" t="s">
+        <v>78</v>
+      </c>
+      <c r="L284">
+        <v>894</v>
+      </c>
+      <c r="M284" t="s">
+        <v>96</v>
+      </c>
+      <c r="N284" s="1" t="s">
+        <v>1459</v>
+      </c>
+      <c r="O284" s="1" t="s">
+        <v>1311</v>
+      </c>
+      <c r="P284" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q284" s="1" t="s">
+        <v>1658</v>
+      </c>
+      <c r="R284" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="S284" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="T284" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="U284" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="V284" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="W284" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="X284" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="Y284" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z284" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA284" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB284" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC284" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD284" t="s">
+        <v>1670</v>
+      </c>
+    </row>
+    <row r="285" spans="1:30">
+      <c r="A285" t="s">
+        <v>1632</v>
+      </c>
+      <c r="B285" t="str">
+        <f t="shared" si="4"/>
+        <v>CT2019_214</v>
+      </c>
+      <c r="C285" s="1" t="s">
+        <v>1642</v>
+      </c>
+      <c r="D285" s="1" t="s">
+        <v>1646</v>
+      </c>
+      <c r="E285" s="1" t="s">
+        <v>1381</v>
+      </c>
+      <c r="F285">
+        <v>24</v>
+      </c>
+      <c r="G285" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H285">
+        <v>63</v>
+      </c>
+      <c r="I285">
+        <v>34</v>
+      </c>
+      <c r="J285" t="s">
+        <v>77</v>
+      </c>
+      <c r="K285" t="s">
+        <v>78</v>
+      </c>
+      <c r="L285">
+        <v>895</v>
+      </c>
+      <c r="M285" t="s">
+        <v>96</v>
+      </c>
+      <c r="N285" s="1" t="s">
+        <v>1459</v>
+      </c>
+      <c r="O285" s="1" t="s">
+        <v>1233</v>
+      </c>
+      <c r="P285" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q285" s="1" t="s">
+        <v>1659</v>
+      </c>
+      <c r="R285" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="S285" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="T285" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="U285" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="V285" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="W285" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="X285" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="Y285" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z285" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA285" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB285" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC285" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="1:30">
+      <c r="A286" t="s">
+        <v>1633</v>
+      </c>
+      <c r="B286" t="str">
+        <f t="shared" si="4"/>
+        <v>CT2019_214</v>
+      </c>
+      <c r="C286" s="1" t="s">
+        <v>1642</v>
+      </c>
+      <c r="D286" s="1" t="s">
+        <v>1647</v>
+      </c>
+      <c r="E286" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F286">
+        <v>24</v>
+      </c>
+      <c r="G286" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H286">
+        <v>59</v>
+      </c>
+      <c r="I286">
+        <v>32</v>
+      </c>
+      <c r="J286" t="s">
+        <v>11</v>
+      </c>
+      <c r="K286" t="s">
+        <v>132</v>
+      </c>
+      <c r="L286">
+        <v>896</v>
+      </c>
+      <c r="M286" t="s">
+        <v>96</v>
+      </c>
+      <c r="N286" s="1" t="s">
+        <v>1459</v>
+      </c>
+      <c r="O286" s="1" t="s">
+        <v>1234</v>
+      </c>
+      <c r="P286" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q286" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="R286" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="S286" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="T286" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="U286" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="V286" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="W286" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="X286" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="Y286" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="Z286" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AA286" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AB286" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AC286" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AD286" s="1" t="s">
+        <v>1669</v>
+      </c>
+    </row>
+    <row r="287" spans="1:30">
+      <c r="A287" t="s">
+        <v>1634</v>
+      </c>
+      <c r="B287" t="str">
+        <f t="shared" si="4"/>
+        <v>CT2019_214</v>
+      </c>
+      <c r="C287" s="1" t="s">
+        <v>1642</v>
+      </c>
+      <c r="D287" s="1" t="s">
+        <v>1513</v>
+      </c>
+      <c r="E287" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="F287">
+        <v>28</v>
+      </c>
+      <c r="G287" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H287">
+        <v>59</v>
+      </c>
+      <c r="I287">
+        <v>33</v>
+      </c>
+      <c r="J287" t="s">
+        <v>77</v>
+      </c>
+      <c r="K287" t="s">
+        <v>132</v>
+      </c>
+      <c r="L287">
+        <v>897</v>
+      </c>
+      <c r="M287" t="s">
+        <v>96</v>
+      </c>
+      <c r="N287" s="1" t="s">
+        <v>1459</v>
+      </c>
+      <c r="O287" s="1" t="s">
+        <v>1235</v>
+      </c>
+      <c r="P287" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q287" s="1" t="s">
+        <v>1660</v>
+      </c>
+      <c r="R287" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="S287" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="T287" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="U287" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="V287" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="W287" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="X287" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="Y287" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z287" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA287" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB287" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC287" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288" spans="1:30">
+      <c r="A288" t="s">
+        <v>1635</v>
+      </c>
+      <c r="B288" t="str">
+        <f t="shared" si="4"/>
+        <v>CT2019_214</v>
+      </c>
+      <c r="C288" s="1" t="s">
+        <v>1642</v>
+      </c>
+      <c r="D288" s="1" t="s">
+        <v>1648</v>
+      </c>
+      <c r="E288" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="F288">
+        <v>24</v>
+      </c>
+      <c r="G288" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H288">
+        <v>68</v>
+      </c>
+      <c r="I288">
+        <v>38</v>
+      </c>
+      <c r="J288" t="s">
+        <v>77</v>
+      </c>
+      <c r="K288" t="s">
+        <v>78</v>
+      </c>
+      <c r="L288">
+        <v>898</v>
+      </c>
+      <c r="M288" t="s">
+        <v>96</v>
+      </c>
+      <c r="N288" s="1" t="s">
+        <v>1459</v>
+      </c>
+      <c r="O288" s="1" t="s">
+        <v>1236</v>
+      </c>
+      <c r="P288" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q288" s="1" t="s">
+        <v>1661</v>
+      </c>
+      <c r="R288" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="S288" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="T288" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="U288" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="V288" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="W288" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="X288" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="Y288" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z288" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA288" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB288" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC288" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289" spans="1:30">
+      <c r="A289" t="s">
+        <v>1636</v>
+      </c>
+      <c r="B289" t="str">
+        <f t="shared" si="4"/>
+        <v>CT2019_215</v>
+      </c>
+      <c r="C289" s="1" t="s">
+        <v>1643</v>
+      </c>
+      <c r="D289" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="E289" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="F289">
+        <v>28</v>
+      </c>
+      <c r="G289" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H289">
+        <v>71</v>
+      </c>
+      <c r="I289">
+        <v>40</v>
+      </c>
+      <c r="J289" t="s">
+        <v>77</v>
+      </c>
+      <c r="K289" t="s">
+        <v>78</v>
+      </c>
+      <c r="L289">
+        <v>899</v>
+      </c>
+      <c r="M289" t="s">
+        <v>96</v>
+      </c>
+      <c r="N289" s="1" t="s">
+        <v>1459</v>
+      </c>
+      <c r="O289" s="1" t="s">
+        <v>1237</v>
+      </c>
+      <c r="P289" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q289" s="1" t="s">
+        <v>1662</v>
+      </c>
+      <c r="R289" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="S289" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="T289" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="U289" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="V289" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="W289" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="X289" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="Y289" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z289" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA289" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB289" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC289" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290" spans="1:30">
+      <c r="A290" t="s">
+        <v>1637</v>
+      </c>
+      <c r="B290" t="str">
+        <f t="shared" si="4"/>
+        <v>CT2019_215</v>
+      </c>
+      <c r="C290" s="1" t="s">
+        <v>1643</v>
+      </c>
+      <c r="D290" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="E290" s="1" t="s">
+        <v>955</v>
+      </c>
+      <c r="F290">
+        <v>24</v>
+      </c>
+      <c r="G290" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H290">
+        <v>66</v>
+      </c>
+      <c r="I290">
+        <v>39</v>
+      </c>
+      <c r="J290" t="s">
+        <v>77</v>
+      </c>
+      <c r="K290" t="s">
+        <v>78</v>
+      </c>
+      <c r="L290">
+        <v>900</v>
+      </c>
+      <c r="M290" t="s">
+        <v>96</v>
+      </c>
+      <c r="N290" s="1" t="s">
+        <v>1459</v>
+      </c>
+      <c r="O290" s="1" t="s">
+        <v>1307</v>
+      </c>
+      <c r="P290" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q290" s="1" t="s">
+        <v>1663</v>
+      </c>
+      <c r="R290" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="S290" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="T290" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="U290" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="V290" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="W290" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="X290" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="Y290" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z290" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA290" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB290" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC290" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291" spans="1:30">
+      <c r="A291" t="s">
+        <v>1638</v>
+      </c>
+      <c r="B291" t="str">
+        <f t="shared" si="4"/>
+        <v>CT2019_219</v>
+      </c>
+      <c r="C291" s="1" t="s">
+        <v>1644</v>
+      </c>
+      <c r="D291" s="1" t="s">
+        <v>1649</v>
+      </c>
+      <c r="E291" s="1" t="s">
+        <v>1652</v>
+      </c>
+      <c r="F291">
+        <v>26</v>
+      </c>
+      <c r="G291" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H291">
+        <v>70</v>
+      </c>
+      <c r="I291">
+        <v>39</v>
+      </c>
+      <c r="J291" t="s">
+        <v>77</v>
+      </c>
+      <c r="K291" t="s">
+        <v>132</v>
+      </c>
+      <c r="L291">
+        <v>901</v>
+      </c>
+      <c r="M291" t="s">
+        <v>96</v>
+      </c>
+      <c r="N291" s="1" t="s">
+        <v>1459</v>
+      </c>
+      <c r="O291" s="1" t="s">
+        <v>1308</v>
+      </c>
+      <c r="P291" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q291" s="1" t="s">
+        <v>1664</v>
+      </c>
+      <c r="R291" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="S291" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="T291" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="U291" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="V291" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="W291" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="X291" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="Y291" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z291" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA291" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB291" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC291" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD291" t="s">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="292" spans="1:30">
+      <c r="A292" t="s">
+        <v>1639</v>
+      </c>
+      <c r="B292" t="str">
+        <f t="shared" si="4"/>
+        <v>CT2019_219</v>
+      </c>
+      <c r="C292" s="1" t="s">
+        <v>1644</v>
+      </c>
+      <c r="D292" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="E292" s="1" t="s">
+        <v>1653</v>
+      </c>
+      <c r="F292">
+        <v>16</v>
+      </c>
+      <c r="G292" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H292">
+        <v>66</v>
+      </c>
+      <c r="I292">
+        <v>36</v>
+      </c>
+      <c r="J292" t="s">
+        <v>77</v>
+      </c>
+      <c r="K292" t="s">
+        <v>78</v>
+      </c>
+      <c r="L292">
+        <v>902</v>
+      </c>
+      <c r="M292" t="s">
+        <v>96</v>
+      </c>
+      <c r="N292" s="1" t="s">
+        <v>1665</v>
+      </c>
+      <c r="O292" s="1" t="s">
+        <v>1309</v>
+      </c>
+      <c r="P292" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q292" s="1" t="s">
+        <v>1666</v>
+      </c>
+      <c r="R292" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="S292" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="T292" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="U292" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="V292" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="W292" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="X292" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="Y292" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z292" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA292" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB292" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC292" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293" spans="1:30">
+      <c r="A293" t="s">
+        <v>1640</v>
+      </c>
+      <c r="B293" t="str">
+        <f t="shared" si="4"/>
+        <v>CT2019_219</v>
+      </c>
+      <c r="C293" s="1" t="s">
+        <v>1644</v>
+      </c>
+      <c r="D293" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E293" s="1" t="s">
+        <v>1654</v>
+      </c>
+      <c r="F293">
+        <v>20</v>
+      </c>
+      <c r="G293" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H293">
+        <v>72</v>
+      </c>
+      <c r="I293">
+        <v>47</v>
+      </c>
+      <c r="J293" t="s">
+        <v>77</v>
+      </c>
+      <c r="K293" t="s">
+        <v>132</v>
+      </c>
+      <c r="L293">
+        <v>903</v>
+      </c>
+      <c r="M293" t="s">
+        <v>96</v>
+      </c>
+      <c r="N293" s="1" t="s">
+        <v>1665</v>
+      </c>
+      <c r="O293" s="1" t="s">
+        <v>1310</v>
+      </c>
+      <c r="P293" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q293" s="1" t="s">
+        <v>1667</v>
+      </c>
+      <c r="R293" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="S293" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="T293" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="U293" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="V293" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="W293" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="X293" s="1" t="s">
+        <v>914</v>
+      </c>
+      <c r="Y293" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z293" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA293" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB293" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC293" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294" spans="1:30">
+      <c r="A294" t="s">
+        <v>1641</v>
+      </c>
+      <c r="B294" t="str">
+        <f t="shared" si="4"/>
+        <v>CT2019_219</v>
+      </c>
+      <c r="C294" s="1" t="s">
+        <v>1644</v>
+      </c>
+      <c r="D294" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="E294" s="1" t="s">
+        <v>1655</v>
+      </c>
+      <c r="F294">
+        <v>28</v>
+      </c>
+      <c r="G294" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H294">
+        <v>74</v>
+      </c>
+      <c r="I294">
+        <v>43</v>
+      </c>
+      <c r="J294" t="s">
+        <v>77</v>
+      </c>
+      <c r="K294" t="s">
+        <v>132</v>
+      </c>
+      <c r="L294">
+        <v>904</v>
+      </c>
+      <c r="M294" t="s">
+        <v>96</v>
+      </c>
+      <c r="N294" s="1" t="s">
+        <v>1665</v>
+      </c>
+      <c r="O294" s="1" t="s">
+        <v>1311</v>
+      </c>
+      <c r="P294" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q294" s="1" t="s">
+        <v>1668</v>
+      </c>
+      <c r="R294" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="S294" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="T294" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="U294" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="V294" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="W294" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="X294" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="Y294" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z294" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA294" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB294" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC294" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD294" t="s">
+        <v>304</v>
       </c>
     </row>
   </sheetData>

--- a/data/taggingData/tagChinData.xlsx
+++ b/data/taggingData/tagChinData.xlsx
@@ -5736,7 +5736,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -5771,7 +5771,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -5958,9 +5958,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD294"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A218" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N241" sqref="N241"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A269" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P287" sqref="P287"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -31883,7 +31883,7 @@
         <v>1234</v>
       </c>
       <c r="P286" s="10" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="Q286" s="1" t="s">
         <v>96</v>

--- a/data/taggingData/tagChinData.xlsx
+++ b/data/taggingData/tagChinData.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7358" uniqueCount="1671">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7360" uniqueCount="1673">
   <si>
     <t>event</t>
   </si>
@@ -5041,6 +5041,12 @@
   </si>
   <si>
     <t>face wound</t>
+  </si>
+  <si>
+    <t>RECPATURED (see file)</t>
+  </si>
+  <si>
+    <t>RECAPTURED (see file)</t>
   </si>
 </sst>
 </file>
@@ -5958,9 +5964,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD294"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A269" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P287" sqref="P287"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P35" sqref="P35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9026,7 +9032,7 @@
         <v>310</v>
       </c>
       <c r="P34" s="1" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="Q34" s="1" t="s">
         <v>96</v>
@@ -11068,6 +11074,9 @@
       <c r="AC56" s="9">
         <v>0</v>
       </c>
+      <c r="AD56" t="s">
+        <v>1671</v>
+      </c>
     </row>
     <row r="57" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
@@ -14880,6 +14889,9 @@
       </c>
       <c r="AC98" s="9">
         <v>0</v>
+      </c>
+      <c r="AD98" t="s">
+        <v>1672</v>
       </c>
     </row>
     <row r="99" spans="1:30" x14ac:dyDescent="0.3">

--- a/data/taggingData/tagChinData.xlsx
+++ b/data/taggingData/tagChinData.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7360" uniqueCount="1673">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7362" uniqueCount="1673">
   <si>
     <t>event</t>
   </si>
@@ -5965,8 +5965,8 @@
   <dimension ref="A1:AD294"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P35" sqref="P35"/>
+      <pane ySplit="1" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N119" sqref="N119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13792,6 +13792,9 @@
       <c r="AC86" s="9">
         <v>0</v>
       </c>
+      <c r="AD86" t="s">
+        <v>1672</v>
+      </c>
     </row>
     <row r="87" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
@@ -16800,6 +16803,9 @@
       </c>
       <c r="AC119" s="9">
         <v>0</v>
+      </c>
+      <c r="AD119" t="s">
+        <v>1672</v>
       </c>
     </row>
     <row r="120" spans="1:30" x14ac:dyDescent="0.3">

--- a/data/taggingData/tagChinData.xlsx
+++ b/data/taggingData/tagChinData.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7362" uniqueCount="1673">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7366" uniqueCount="1673">
   <si>
     <t>event</t>
   </si>
@@ -5964,9 +5964,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD294"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N119" sqref="N119"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="X7" sqref="X7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6163,6 +6163,9 @@
       <c r="AC2" s="9">
         <v>0</v>
       </c>
+      <c r="AD2" t="s">
+        <v>1672</v>
+      </c>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -11977,6 +11980,9 @@
       <c r="AC66" s="9">
         <v>0</v>
       </c>
+      <c r="AD66" t="s">
+        <v>1671</v>
+      </c>
     </row>
     <row r="67" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
@@ -24505,6 +24511,9 @@
       <c r="AC204" s="9">
         <v>0</v>
       </c>
+      <c r="AD204" t="s">
+        <v>1672</v>
+      </c>
     </row>
     <row r="205" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
@@ -29847,6 +29856,9 @@
       </c>
       <c r="AC263" s="9">
         <v>0</v>
+      </c>
+      <c r="AD263" t="s">
+        <v>1672</v>
       </c>
     </row>
     <row r="264" spans="1:30" x14ac:dyDescent="0.3">
